--- a/output/Total_time_range_data/河北省/邯郸市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/邯郸市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1790 +436,1960 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>山西省晋中市左权县政协主席吕爱鸿一行到肥乡区考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202407/t20240705_2052449.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月1日，山西省晋中市左权县政协主席吕爱鸿一行来肥考察学习乡村振兴、产业发展、政协党建、“政协委员之家”建设等工作，区政协主席王运成，政协副主席王学锋、米春利、刘健参加。', '在西吕营镇田寨村，吕爱鸿一行察看了乡村振兴、产业发展等工作；在政协党建活动室，吕爱鸿一行详细了解了肥乡区政协党的组织架构、党员委员联系党外委员等情况；在“政协委员之家”，吕爱鸿一行参观了肥乡区政协“辉煌历程——纪念肥乡政协成立四十周年”展览、书画、摄影作品展，并详细了解委员联系界别群众、基层协商等工作开展情况。', '吕爱鸿指出：肥乡区政协把“政协委员之家”打造成委员学习交流的平台、密切联系群众的桥梁、提升能力素质的阵地、了解社情民意的窗口的经验做法，具有很好的学习借鉴意义。双方希望今后能够加强交流，共同推进政协事业和经济社会高质量发展不断迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>山西省晋中市左权县人大常委会主任高儒林一行到肥乡区考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202407/t20240705_2052448.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['7月1日下午，山西省晋中市左权县人大常委会主任高儒林一行到我区考察和美乡村、产业振兴、代表站建设等工作。区人大常委会主任刘素芳、区人大常委会副主任颜学燕参加。', '在西吕营镇田寨村，考察团一行察看了和美乡村、产业振兴等工作；在广安代表站，考察团一行详细听取了我区广安代表站活动开展情况、人大代表坐班值班制度、为群众办实事解难题等情况介绍。', '高儒林认为，肥乡区人大代表站建设工作重视程度高、工作安排细、创新举措实、人大代表作用发挥好，非常值得学习和借鉴。高儒林表示：将认真汲取肥乡区代表站建设工作中的好经验、好做法，与左权县的工作实际相结合，创造性地抓好落地落实，全面提升代表站工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>市供销社张军主任带队到邢台市供销社考察学习社属企业改革工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202403/t20240305_2025238.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['2月23日下午，市供销社党组书记、理事会主任、供销集团董事长张军带队，组织部分县级领导、有关处室、单位负责同志赴邢台市供销社进行考察学习。邢台市供销社党组书记、理事会主任王永伟等全程陪同。', '张军同志一行先后深入到邢台市南和区供销社三召乡1500平米综合超市、邢台供销仓储保鲜冷链物流园、邢台市五一供销广场、供销仓储折扣综合超市、供销食堂和供销文旅超市、农村产权交易中心等地实地调研，并详细了解社属企业项目建设、城乡物流配送、资产盘活、运营模式、效果及发展等经验做法。', '两地供销社一致表示，坚持认真贯彻落实党的二十大精神和习近平总书记关于供销合作社重要指示批示精神，在两市农副产品互通等综合改革工作方面，互学互促、互鉴互进，加强沟通交流，广泛开展合作，积极为推动供销合作事业发展做贡献。', '考察学习结束后，张军主任简要作了小结。他强调指出，邢台市社在深化市属企业改革中，强化资产管理、构建流通体系、推进项目建设、盘活闲置资产的思路做法，对加快我市供销社集团企业补齐发展短板弱项、解放思想守正创新，实现全市供销系统高质量发展具有重要的借鉴意义。', '围绕服务“三农”工作大局，把高质量发展作为市供销合作社及集团企业改革发展的首要任务，大力推进经营创新、服务创新、组织创新。', '围绕公司制企业现代经营机制转换，制定科学业绩评价体系，加快实施集团化经营战略，有效推动系统企业联合发展，真正把集团企业办成自主经营、自负盈亏、自我约束、自我发展的企业。', '围绕企业转型升级，建立健全灵活高效的激励约束机制，逐步实现资源向传统优势产业集中，提高企业核心竞争力，做大做强骨干企业。', '围绕市委、市政府“大抓项目、抓大项目”的鲜明导向，充分利用社有资产高效利用和主责主业，有针对性地谋划、包装、争跑项目，做实做细项目储备、可研、立项等前期手续，积极与省社、总社供销集团对接，做到精准对接、精准争取，切实提高争跑质效。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>湖南省益阳市桃江县政协副主席夏末花一行来肥乡区考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202407/t20240712_2053594.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['7月10日，湖南省益阳市桃江县政协副主席夏末花一行来肥考察学习，区政协副主席米春利参加。', '夏末花认为我区在移风易俗、风俗改革、政协委员活动阵地建设等工作做得好、做得实，将认真汲取我区好经验、好做法，与桃江县政协工作实际相结合，创造性地抓好工作落实。区政协副主席米春利希望两地政协在移风易俗、推动社会新风尚、加强政协委员履职能力工作中相互学习，相互借鉴，取长补短，共同提高，为推动两地经济社会发展贡献更多政协智慧和力量。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>考察学习取真经对标对表谋提升邯郸市供销社主任张军赴信阳市供销社考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202404/t20240430_2038232.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['名称：考察学习“取真经” 对标对表谋提升——邯郸市供销社主任张军赴信阳市供销社考察学习', '2024年4月23日至4月24日，邯郸市供销社党组书记、理事会主任、供销集团董事长张军带队，赴信阳市供销社对接考察学习，重点考察学习信阳市供销社在积极参与农业社会化服务、供销集团建设及当地茶产业发展等方面的先进经验和具体措施。市社三级调研员郭茶民，市社项目办、供销集团负责同志参加考察。信阳市供销社党组书记、理事会主任邹忠生参加座谈，信阳市供销社党组副书记、监事会主任闵远峰全程陪同考察。', '信阳市地处鄂豫皖三省交界，位于河南省最南端，是我国南北地理、气候过渡带和豫楚文化融合区，承东启西、连南贯北，是重要的区域性综合交通枢纽和现代物流枢纽。2023年，信阳市供销社率先成立全省首个农业社会化服务联盟，与中国农业生产资料集团合作打造“1+8+N”农业社会化服务体系“信阳模式”。建成各类为农服务中心91个，开展社会化服务183万亩次，土地托管面积194万亩，综合业绩考核连续七年位居河南省供销社系统省辖市第一名。', '张军一行先后到位于信阳市主城区的汇天下嘉美广场、供销隆盈进出口茶叶公司体验馆、信阳市供销优选配送公司、信阳供销社红色商圈党群服务中心及恒丰建材广场市场等地，认真参观了解信阳市社在社有资产高效利用、茶产业合作及农副产品物流配送等方面工作。在信阳供销集团总部，双方进行了深入座谈交流。', '邹忠生主任首先对张军主任一行的到来表示欢迎，并详细介绍了信阳市社近年来的发展情况。他说，信阳市供销社正在实施打造“党建引领、村社共建”的乡村振兴示范、为农服务中心牵引的农业社会化服务、供销电商平台带动的农产品流通模式三大模式，并具体介绍了三大模式具体措施及供销集团在组织构架和日常运营方面的经验和做法。会上，信阳市固始县供销社介绍了与京东集团合作的“三级仓储物流中心项目”的进展情况。', '张军主任对信阳市供销社近年来的良好发展和经验分享表示赞赏和感谢。他表示，信阳市供销社在持续深化社属企业改革、强化农业社会化服务、集团运营建设、大力发展当地特色农产品和项目建设等方面的具体做法，对加快邯郸市供销系统补齐发展短板弱项，实现供销企业高质量发展具有良好的借鉴意义。', '一是两地供销社要加强沟通交流，实现互学互鉴互进。因为两地在本省地域位置、社有企业发展方向、积极参与农业社会化服务等方面高度相似，双方的成功经验具有双向可借鉴意义。二是借鉴信阳市社关于集团建设经验做法，加快实施集团化经营战略，探索整合资产管理模式和运营模式。因地制宜，因企制宜，科学统筹，聚焦主责主业，加快提高社有企业经济效益，增强为农服务综合实力，真正实现供销企业高质量发展。三是学习信阳市供销社开展农业社会化服务及当地特色农副产品种、产、销等成功经验，结合邯郸本地实际，加强与相关部门沟通对接，积极争取上级政策及资金支持，促进供销社综合改革更好发展。四是学习信阳市供销社成功引进京东集团农服物流合作项目落地的成功经验，加快推进邯郸市社与京东集团农服合作项目步伐。', '在信阳市浉河区联农茶叶专业合作社，张军一行实地参观并详细了解了当地在茶叶种植、加工、销售、品种改良和市场信息等方面的具体做法。在与浉河区领导和专业合作社负责人的座谈会上，张军表示，信阳毛尖历史悠久，是中国十大名茶之一，被评为“中国十大茶叶区域公用品牌”，在茶产业方面有着丰富的经验。邯郸市供销社于2023年成功举办了河北省第九届茶艺师技能大赛、邯郸市首届茶艺师技能大赛，衷心希望信阳市社能够在茶产业发展、茶叶市场经营运作等方面给予指导帮助，促进邯郸当地茶产业市场更好发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市供销社到漯河市社考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202312/t20231218_2006089.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['2023年12月4日下午，市社党组副书记、监事会主任陈永朝带队到河南省漯河市考察，学习漯河市供销社助力乡村振兴、发展农业社会化服务、基层组织建设等方面的先进经验。漯河市供销社党组副书记、监事会主任刘振阳，漯河市供销社党组成员、理事会副主任史志伟等相关人员进行陪同。', '在临颍县南街村，市社考察组实地考察了南街村的高度自动化产品生产加工中心、科研所和技术中心，听取南街村的历史和发展情况汇报。考察组表示，南街村的品牌已经成为享誉海内外的驰名品牌，极大地带动了当地村民发家致富，助推南街村成为中国十大名村、著名红色旅游景点、全国农业旅游示范点、国家AAAA级旅游景区。南街村在乡村振兴、共同富裕方面的宝贵经验，对邯郸市社下一步发挥为农服务主责主业，助推乡村振兴有着重要的参考价值。', '在临颍县窝城供销社为农服务中心，市社考察组参观了窝城供销社“一站式”为农综合服务平台、“搭建联合体”，了解群众生产求助热线运行情况，深入学习窝城供销社“公司+村集体+专业合作社+农户”经营模式，“党支部+为农服务中心+农户”一体化，产、供、销一条龙增收渠道的先进经验。考察组认为，窝城供销社立足主责主业，围绕农业生产社会化服务，通过盘活闲置资产和引进外部资源，建设了集托育、康养、购物、土地托管服务为一体的产业体系，一站式满足当地群众的生产生活需求，特别是通过创新模式，发展社员1900多户，通过不断提高农业技术来降低种植成本，举办专题培训提高从业者素质等方式，发展3万余亩土地托管服务，助农增收300多万元，走活了党建引领促村集体发展、农民增收、合作社增效一盘棋。', '在本次考察学习过程中，陈永朝带领市社考察组深入学习漯河市社服务“三农”、乡村振兴、运作模式、商品开发等相关领域的经验做法，加强了与兄弟社之间的交流和学习，通过在比较中寻找差距，在交流中凝聚共识，在学习中相互提高、进一步开拓了工作思路，明确了提升方向, 为市社下一步工作质量整体提升奠定了良好基础。', '市社四级调研员宋志杰、邯郸供销集团总经理郑延领、城郊社党委书记薛辉、曲周县供销社副主任范河岭、城兴商贸有限公司工会主席申建军等相关人员随队考察。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>邯郸市国资委一行到沧州市国资委考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23699/202305/t20230522_1870250.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['按照委工作安排，5月17日，邯郸市国资委三级调研员马勇带队到沧州市国资委考察调研，学习考察央企对接、企业领导人员管理和考核分配等方面工作经验。央企对接服务处、规划发展处、企业领导人员管理和考核分配处、综合处有关人员参加本次学习考察。', '座谈会上，沧州市国资委二级调研员王希杰对邯郸市国资委一行的到来表示热烈欢迎，双方对各自国资委的基本情况、国有企业改革发展情况以及国资监管等工作进行了充分交流，对央企对接服务、企业领导人员管理、薪酬管理和考核分配等工作进行了深入交流和探讨。随后，考察组同志分别到对口处室参观学习，详细了解政策制度制定及具体业务开展情况，并建立了常态化联系机制。', '马勇同志表示，沧州市国资委央企对接工作起步早、成效好，我委要深入学习沧州市央企对接工作的先进经验，积极履行央地合作服务员、联络员职责，进一步健全机制、优化服务、搭建平台、促进合作，推动我市一批优质项目尽快签约落地。要坚持“走出去”学习调研，加强与其他地市国资委互联互动，借鉴先进经验，开拓工作思路，助推国资国企各项工作取得新突破。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>王元峰带队赴洛阳考察学习文旅工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202406/t20240607_2046072.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['(涉县融媒体中心)6月3日至5日，政府县长王元峰带队赴洛阳市进行考察学习。县委副书记张海军、八路军一二九师纪念馆馆长李海军参加。', '考察团一行先后到洛阳市未来科技园、大河荟文商旅综合体、龙门石窟、洛邑古城、隋唐大运河文化博物馆和栾川县老君山、重渡沟景区等地进行实地考察，并与洛阳市文旅部门相关负责人座谈交流，认真学习文商旅新业态融合发展、数字文旅新场景打造、精品民宿高标准提升、旅游宣传新模式营销等先进经验。', '王元峰指出，县文旅部门及各重点景区要进一步解放思想，深入学习贯彻习近平总书记对旅游发展的重要指示精神，牢牢把握旅游作为“民生产业、幸福产业”的显著时代特征，坚持守正创新、提质增效、融合发展，突出以文塑旅、以旅彰文，统筹政府与市场、供给与需求、保护与开发、发展与安全，持续推动文旅产业高质量发展。要对标先进、苦练内功，立足自身资源禀赋，充分学习借鉴洛阳文商旅融合发展的先进经验，坚持以游客为中心，不断提升县内景区品质、丰富旅游业态、提升服务水平、创新宣传营销，切实把学习成果转化为文旅提质增效的实际行动，着力打造独具特色的涉县旅游品牌，不断提升涉县旅游的知名度和影响力。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>辛集市供销社到磁县考察学习供销社综合改革情况</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/201808/t20180802_805319.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['上午，辛集市供销社主任梁建青一行6人，到磁县就深化供销社综合改革工作进行了学习交流。在县社机关会议室集中观看了《磁县供销社改革进行时》专题片，并与县社党委书记、理事会主任孙作洲就磁县近年来的供销社综合改革工作进展进行了座谈。实地参观了我县农村产权交易中心，着重对组建方式、方法及运营状况进行了详细了解并交换了意见。并给予磁县供销社综合改革工作高度评价，要将磁县好的经验和工作做法带回辛集。参观结束后，双方商议，今后将定期互访参观，更好的相互学习，相互促进，为进一步深化供销社综合改革建好互通交流机制。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>永年区供销社到广平县社学习考察农村产权交易工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/201808/t20180802_805502.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['下午，区供销社党组书记、理事会主任张现增带领两名副主任及有关工作人员到广平县供销社考察农村产权交易中心建设及业务开展情况。广平县供销社主任王洪亮介绍了该县农村产权交易中心建设情况。广平县农村产权交易中心与河北省农村产权交易中心开展了业务对接，签署了《关于合作共建广平交易信息化平台协议》和《网络平台安全责任承诺书》，交易中心投入运营后，共办理土地流转交易签证4笔450余亩。目前，在全县所有乡镇建立了产权交易中心工作站，在169个行政村聘请了产权交易联络员。', '张现增主任要求永年供销社农村产权交易中心建设要抓紧推进，借鉴广平县供销社先进经验和做法，通过市场化运作的方式把农村土地承包经营权、农村集体经济股权、农村宅基地使用权和房屋所有权纳入产业交易业务范围，激活农村资本市场，促进农村经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>邯郸市工业和信息化局赴山东淄博对标学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23727/201808/t20180802_821436.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['按照市《“解放思想、抢抓机遇、奋发作为、协同发展”大讨论活动实施方案》的要求， 12月24-25日市工信局党委书记、局长李冠军带领局领导班子成员及局机关各处室主要负责人，到山东淄博市进行对标学习考察。', '日市工信局党委书记、局长李冠军带领局领导班子成员及局机关各处室主要负责人，到山东淄博市进行对标学习考察。', '淄博是工矿业开发较早的地区之一，工业发展历史已逾百年，是山东省及国内重要的工业城市。主导产业以石油化工、精细化工、机电装备、医药、纺织、建材、轻工、冶金、信息以及新材料最具代表性，是全国重要的石油化工、医药生产基地和建材产区。近年来，淄博市委、市政府出台了一系列促进工业发展的政策措施，特别是今年出台的《关于推动转型升级建设工业强市的若干政策意见》，对于重塑淄博竞争新优势起到了重要作用。2014年，淄博市完成生产总值达到4029.8亿元，公共财政预算收入292.5亿元。', '在淄博期间，先后实地考察了蓝帆塑胶、齐鲁化工区金山产业园，淄博市经信委介绍了其工业发展的情况及其主要经验做法，并进行了互动交流。参加考察的人员一致认为，淄博工业转型早、工作推动力度大、政策措施操作性强，很值得我们学习借鉴。对标考察后，李冠军局长要求各位局领导、各处室要认真借鉴淄博经验，制定赶超计划，列出可比可学可赶的工作和指标，拿出争先进位的思路和措施，为我市工业加快发展、转型升级做出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>县区武安市政府党组成员副市长宋理达带队赴曲周科技小院考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/ztzl/sn/202401/t20240124_2017531.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['【县区】 武安市政府党组成员、副市长宋理达带队赴曲周科技小院考察学习 - 邯郸市人民政府', '为贯彻落实市委农村工作会议精神，1月10日上午，武安市政府党组成员、副市长宋理达带队赴曲周县白寨科技小院、晨光生物科技集团股份有限公司、中国农业大学曲周实验站考察学习。市政府办、市农业农村局、活水乡、北安乐乡相关负责同志参加。 走进曲周县白寨科技小院，院墙上的“解民生之多艰，育天下之英才”几个红色大字格外显眼。白寨科技小院是全国第一个科技小院，中国农业大学研究生向大家详细介绍了科技小院“研究生+农民+合作社+产业”的运作模式以及“零距离、零门槛、零时差、零费用”的科技培训和服务模式。科技小院的师生们长期驻扎在农村和生产一线，实现了产教融合，科教融汇，形成了人才培养、科技创新和社会服务“三位一体”的科技小院模式。 晨光集团是国家高新技术企业、农业产业化国家重点龙头企业。在晨光集团产品展厅，考察组一行详细了解企业发展历程、技术研发水平、产品功能定位、市场营销、全球产业布局等情况，深刻体会了企业从无到有、从小到大、从弱到强直至技术和产品稳居国际前沿的拼搏奋进过程。 在中国农业大学曲周实验站，考察组从一幅幅照片、一组组数据、一幕幕情景中了解上世纪70年代起，中国农业大学老一辈科学家和曲周县人民“改土治碱、造福曲周”的伟大实践。“深沟浅井，改土治碱”方案一举攻破世界性盐碱治理难题，曲周县28万亩“盐碱滩”变成了林丰粮茂的“米粮川”。 宋理达表示，科技小院采用科技创新、社会服务和人才培养“三位一体”新模式，搭建起了“政产学研用”综合服务平台，打通了农业科技创新和应用的“最后一公里”。武安要研究借鉴曲周科技小院成功经验，积极对接高校和科研院所，招才引智、合作共建，走出一条高校与农村深度结合、科技与产业紧密联结、生产与生活协调推进的新路子。 来源：武安市农业农村局', '上午，武安市政府党组成员、副市长宋理达带队赴曲周县白寨科技小院、晨光生物科技集团股份有限公司、中国农业大学曲周实验站考察学习。市政府办、市', '走进曲周县白寨科技小院，院墙上的“解民生之多艰，育天下之英才”几个红色大字格外显眼。白寨科技小院是全国第一个科技小院，中国农业大学研究生向大家详细介绍了科技小院“研究生+农民+合作社+产业”的运作模式以及“零距离、零门槛、零时差、零费用”的科技培训和服务模式。科技小院的师生们长期驻扎在农村和生产一线，实现了产教融合，科教融汇，形成了人才培养、科技创新和社会服务“三位一体”的科技小院模式。', '晨光集团是国家高新技术企业、农业产业化国家重点龙头企业。在晨光集团产品展厅，考察组一行详细了解企业发展历程、技术研发水平、产品功能定位、市场营销、全球产业布局等情况，深刻体会了企业从无到有、从小到大、从弱到强直至技术和产品稳居国际前沿的拼搏奋进过程。', '在中国农业大学曲周实验站，考察组从一幅幅照片、一组组数据、一幕幕情景中了解上世纪70年代起，中国农业大学老一辈科学家和曲周县人民“改土治碱、造福曲周”的伟大实践。“深沟浅井，改土治碱”方案一举攻破世界性盐碱治理难题，曲周县28万亩“盐碱滩”变成了林丰粮茂的“米粮川”。', '宋理达表示，科技小院采用科技创新、社会服务和人才培养“三位一体”新模式，搭建起了“政产学研用”综合服务平台，打通了农业科技创新和应用的“最后一公里”。武安要研究借鉴曲周科技小院成功经验，积极对接高校和科研院所，招才引智、合作共建，走出一条高校与农村深度结合、科技与产业紧密联结、生产与生活协调推进的新路子。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>临漳考察团一行来肥观摩学习大气污染防治工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-05-09</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202405/t20240509_2040020.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['5月6日下午，临漳县副县长李晓磊带队，来肥观摩学习大气污染防治工作。肥乡区政府副区长张伟、区空指中心、生态环境分局、住建局、综合行政执法局、肥乡镇负责同志分别参加。', '考察团一行先后到文化广场、东方名苑、妇幼保健院、勒马台村、君尚一品施工现场等处实地观摩，深入考察我区重点区域精细化管理、施工工地扬尘治理、道路洗扫、全域洗城等大气污染防治工作开展情况。考察过程中，张伟副区长重点介绍了我区大气污染防治工作总体思路、创新做法和取得成绩。', '观摩团一路交流、一路讨论、一路记录，对我区大气污染防治工作情况给予了高度评价，并表示将充分借鉴我区的创新工作方法，结合本县实际，不断创新工作机制，持续加大工作力度，推动大气污染防治工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>磁县公安赴外省考察学习先进工作经验</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/cx/202303/t20230328_1857151.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['为进一步落实市局“三条主线”、“十项工程”及县局打造十大品牌工作部署要求，推动公安工作在磁县更好地落地落实，近日，磁县公安局组织到江苏省盐城市响水县公安局、浙江省诸暨市枫桥派出所考察学习两地先进警务机制建设。磁县政府副县长、公安局局长温俊华参加考察活动。在响水期间，考察组一行首先参观了响水局东鸣湖警务工作站、交警大队车辆管理所、电子数据勘验取证实验室、灌河大桥检查站、城东派出所、情指中心。实地了解了“有事好商量”调解室、警用摩托车、警用平衡车、“平安方舟”等警用装备性能。听取了该局一体化指挥调度、巡接处调警务机制改革和基层派出所建设、派出所“盐之e警”综合服务窗口、“全国一等县级车管所”创建、未成年人跨区域流窜犯罪实战数据模型系统应用、陈家港片区“五所两队”融合警务机制建设、运行情况及反走私“三防”建设等方面的情况介绍，深入了解了该局巡处一体警务机制改革的背景动因、人员配置、勤务模式、所队警情分类接处、运作效果等方面的情况。观看了无人机、无人艇水上救援演练视频和利用无人机、AI智能头盔、AR眼镜实施抓捕的视频，观摩了“女子铁骑队”和“战狼突击队”汇报表演，听取了相关工作做法情况介绍，并与该局党委班子成员和相关所队负责人开展交流座谈。在诸暨市期间，考察组参观了“红枫义警工作站”、枫桥派出所“枫桥经验”公安陈列馆、综合勤务室、群众安全防范体验馆等，详细了解了从上世纪60年代的初步探索，逐步发展完善为“矛盾不上交、平安不出事、服务不缺位”的新时代“枫桥经验”的辉煌历程，交流了“枫桥经验”的新做法、新实践和实际成效，并与派出所当日值班负责同志进行了深入探讨。考察组通过此次考察学习，进一步拓宽了视野、开阔了思路、启发了思考。期间，温俊华围绕不同主题分别组织全体考察人员开展心得交流和辩证讨论，及时强化学习理解与成果吸收。同时，就如何做到取长补短、学以致用提出要求，要深化创新突破，要深刻领会市局“三条主线”和“十项工程”的形势背景、内涵要义和实践要求，立足磁县公安建设发展的基础，围绕中心工作部署，紧扣打造特色品牌，切实在抓巩固、抓拓展、抓升级、抓效应上下功夫，确保市局要求在磁县公安深耕细作、产出成果；要坚持因地制宜，要始终做到求真务实，将警务机制的改革创新根植于磁县公安工作实际，明确磁县公安工作的方向、路径、措施，既不能搞简单“移植”，也不能原地踏步；要认真学习借鉴外县公安工作经验，进一步加强组织领导，健全完善机制，压实工作责任，倾力打造磁县公安十大品牌。', '“三条主线”、“十项工程”及县局打造十大品牌工作部署要求，推动公安工作在磁县更好地落地落实，近日，磁县公安局组织到江苏省盐城市响水县公安局、浙江省诸暨市枫桥派出所考察学习两地先进警务机制建设。磁县政府副县长、公安局局长温俊华参加考察活动。在响水期间，考察组一行首先参观了响水局东鸣湖警务工作站、交警大队车辆管理所、电子数据勘验取证实验室、灌河大桥检查站、城东派出所、情指中心。实地了解了“有事好商量”调解室、警用摩托车、警用平衡车、“平安方舟”等警用装备性能。听取了该局一体化指挥调度、巡接处调警务机制改革和基层派出所建设、派出所“盐之e警”综合服务窗口、“全国一等县级车管所”创建、未成年人跨区域流窜犯罪实战数据模型系统应用、陈家港片区“五所两队”融合警务机制建设、运行情况及反走私“三防”建设等方面的情况介绍，深入了解了该局巡处一体警务机制改革的背景动因、人员配置、勤务模式、所队警情分类接处、运作效果等方面的情况。观看了无人机、无人艇水上救援演练视频和利用无人机、AI智能头盔、AR眼镜实施抓捕的视频，观摩了“女子铁骑队”和“战狼突击队”汇报表演，听取了相关工作做法情况介绍，并与该局党委班子成员和相关所队负责人开展交流座谈。在诸暨市期间，考察组参观了“红枫义警工作站”、枫桥派出所“枫桥经验”公安陈列馆、综合勤务室、群众安全防范体验馆等，详细了解了从上世纪60年代的初步探索，逐步发展完善为“矛盾不上交、平安不出事、服务不缺位”的新时代“枫桥经验”的辉煌历程，交流了“枫桥经验”的新做法、新实践和实际成效，并与派出所当日值班负责同志进行了深入探讨。考察组通过此次考察学习，进一步拓宽了视野、开阔了思路、启发了思考。期间，温俊华围绕不同主题分别组织全体考察人员开展心得交流和辩证讨论，及时强化学习理解与成果吸收。同时，就如何做到取长补短、学以致用提出要求，要深化创新突破，要深刻领会市局“三条主线”和“十项工程”的形势背景、内涵要义和实践要求，立足磁县公安建设发展的基础，围绕中心工作部署，紧扣打造特色品牌，切实在抓巩固、抓拓展、抓升级、抓效应上下功夫，确保市局要求在磁县公安深耕细作、产出成果；要坚持因地制宜，要始终做到求真务实，将警务机制的改革创新根植于磁县公安工作实际，明确磁县公安工作的方向、路径、措施，既不能搞简单“移植”，也不能原地踏步；要认真学习借鉴外县公安工作经验，进一步加强组织领导，健全完善机制，压实工作责任，倾力打造磁县公安十大品牌。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>市供销社组织供销集团及公司赴北京考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-02-27</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202305/t20230508_1866909.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为了进一步解放思想，扩大合作，充分发挥供销社网络优势，更好地服务城乡居民健康生活，按照市社党组书记、理事会主任、供销集团董事长张军的工作要求，由市社党组成员、监事会副主任董建强带队，供销集团、腾达工作组、供销贸易公司一行', '6人，赴中国农科院（主题：乡村振兴生态产品价值实现）、北京绿色交易所（主题：碳汇市场和碳中和产业发展）、京东集团（北京）（主题：京东科技乡村振兴解决方案和京东智慧药柜项目）进行参观考察，并开展合作洽谈。', '2月22日上午，考察组到中国农科院与中国农科院老科协农业规划委员会、中国林业与草原促进会生态原产地委员会、北京洪盛昌投资控股有限公司，同各单位负责人就生态产业、农业科技等项目进行学习交流。经过深入沟通交流达成如下合作意向：', '（三）建议在邯郸成立中国农科院研究分院或分中心，组建专家智库，在战略咨询、规划运营及生态产品价值实现等方面全程辅导，助力乡村振兴。', '（四）利用现有的农业全程网等互联网平台为邯郸市农村产权交易，农旅康养等服务领域开展数字化平台合作。', '（五）洪盛昌投资控股依托中国农业科学院等林业碳汇开发的上下游资源、专业人才和团队优势，全力支持供销社碳汇开发和人才培养，将平台公司打造为基于邯郸市碳汇开发，同时面向全国范围开展碳资产开发与管理业务的专业平台公司。', '下午，考察组一行在中国农科院专家傅明、李延玺的陪同下到北京绿色交易所进行了参观考察，双方进行了座谈，并就绿色交易所基本情况、建设进展情况，碳交易合作事宜进行了交流，对邯郸供销社承担邯郸地区碳交易事宜，进行了探讨，达成了进一步合作开展业务的意向。', '2月23日，考察组到京东集团总部观摩交流，同京东集团零售板块相关负责人李振刚、石志刚及有关工作人员进行座谈交流。董建强介绍了邯郸市供销社基本情况，王瑞良介绍了邯郸供销集团及直属单位基本情况。石志刚及业务板块负责人先后介绍了京东集团概况和各个业务板块的运营模式，详细介绍了零售业务涉及的各个方面，重点介绍了农产品经营和京东智慧药柜业务发展情况，以及京东物流的优势和面临的瓶颈问题。双方表示，这次交流增进了互相了解，发现了多方面可以合作的项目，尤其是京东智慧药柜、农产品、农批、农资等方面可以作为重点进一步洽谈，利用双方优势，达成进一步合作的意向。下午，考察组一行在京东集团安排下，对京东集团各运营板块进行了观摩。', '2月24日，考察组到北京品优超市有限公司考察进口商品超市运营情况，品优超市公司负责人引领考察组现场观摩。董建强详细询问了进口货品产地、进货渠道、主要消费人群、经营情况等，超市负责人一一给予了介绍。双方进行了初步沟通探讨。', '考察组一行一致认为，此次北京之行，开拓了思路，开阔了眼界，提升了站位，对今后业务及项目的开展有很强的指导意义。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>对标栾城考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/201912/t20191202_1221696.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['按：近日，为贯彻落实省、市供销社系统工作会议精神，加快推进系统综合改革工作持续深入，', '供销社产权交易工作列入了区委组织部考核乡镇重点工作，由区供销社负责督导和考核验收；同时探索推广了', '整理印发。请各级各单位认真学习借鉴，积极探索和培育本地可复制推广的经验做法，加快', '社按照“不求拥有、但为所用、服务三农、自我革新”工作思路，紧紧围绕转变农业发展方式、促进农业适度规模经营这一主线，以土地托管为', '切入点推进社会化全程服务，以打造“东西部综合服务圈”为依托推进农业规模化经营，走出了一条具有供销社特色的农业社会化服务新路子，为促进农民增收、助力乡村振兴发挥了应有作用。', '共流转土地1.3万亩，托管土地19万亩，特别是试点推广的南高供销社恒丰种植合作社“农业社会化服务”模式和柳林屯供销社天亮种植合作社“旗帜供销工程”模式，成为全国、全省供销社系统学习推广的典型。主要做法如下：', '在创办领办农村合作经济组织方面，区社制定总体规划，基层社负责组织实施，根据不同辖区产业发展优势，把分散的农户组织起来，通过土地流转、托管服务实行土地统一管理、集中耕种，实现了农业、农民和合作社共同受益、共同发展。', '由供销社职工利用供销社场地设施和经营网络组织农民创办，产权归供销社所有。如南高供销社恒丰专业合作社，是供销社职工利用供销社农资超市、农资仓库、流通网络和场地，组织当地农民创办的。', '领办农民合作社，供销社通过产权介入、项目支持、资产合作、业务带动等方式，与社会能人、种粮大户合作建立。如柳林屯供销社领办的天亮种植合作社，是由生产公司以88吨化肥和供销社品牌入股领办的。', '领办农民合作社，供销社通过产权介入、项目支持、资产合作、业务带动等方式，与社会能人、种粮大户合作建立。如柳林屯供销社领办的天亮种植合作社，是由生产公司以', '随着农业社会化服务规模的不断扩大，区供销社大力推广复制“南高模式”，用不断发展规范的办法不断解决发展中遇到的问题。', '按照市场需求和农户意愿，制定规范土地托管流程，推行“八统一”（即机耕、整地、购种、购肥、播种、管理、收获、存储）服务模式，规范服务标准，推进规模化服务。', '区供销社成立区级新型农民培训中心，与中科院、大专院校、省供销社技能鉴定中心等部门合作，聘请专家、教授，开展优良农作物栽培、灭虫防病、果树管理、农机操作等培训。中心成立以来共开展培训32次，培训社员5800余人次。', '区供销社成立区级新型农民培训中心，与中科院、大专院校、省供销社技能鉴定中心等部门合作，聘请专家、教授，开展优良农作物栽培、灭虫防病、果树管理、农机操作等培训。中心成立以来共开展培训', '为解决农民仓储、销售等粮食瓶颈。天亮、恒丰、风华、惠民等合作社等两年来新建粮食烘干仓储设施1', '为解决农民仓储、销售等粮食瓶颈。天亮、恒丰、风华、惠民等合作社等两年来新建粮食烘干仓储设施', '打造“东西部农业社会化综合服务圈”是该区供销社推广复制“南高模式”采取的一项重大举措。', '以恒丰、天亮为“标杆”，以土地流转、托管、大田服务为主，为实现土地规模经营、发展现代农业服务。', '以城西陈村供销社为中心，辐射周边窦妪、西营、冶河3个村镇，组建供销社金融超市、电商服务站、发展特色农业种植、创办农村社区综合服务中心、领办创办专业合作社等，形成融农村消费服务、现代农业生产、农机维修租赁、粮食种植收储等为一体的西部综合服务圈。目前，该区村级电商实现了“一村一站”全覆盖，土地流转托管达到2.7万亩，农业社会化综合服务初具规模。', '通过开展农业社会化服务，合作社也得到了发展壮大，热心公益事业也使农民对合作社刮目相看。天亮合作社主动捐款15万元用于东牛村道路硬化、绿化美化，有效提升了乡村“美丽指数”，随着合作社社会声誉的不断提高，还担当了新的社会职能。去年5月份，天亮合作社附近两个村的村民产生矛盾纠纷，双方村干部多次调解未能解决，村民请合作社出面协调，由于合作社作为第三方，没有利益偏袒、处理公正，很快就化解了长达一年的纠纷。近两年来，天亮、恒丰、风华等合作社共调解占地、灌溉、耕种等此类矛盾纠纷12起，促进了农村的和谐稳定。', '通过开展农业社会化服务，合作社也得到了发展壮大，热心公益事业也使农民对合作社刮目相看。天亮合作社主动捐款', '天亮合作社坚持以科技兴农，与中科院对接，引导农民开展优质小麦、玉米、谷子等粮食作物的提纯、育苗、种植、销售等，每亩增产100-150公斤。恒丰种植合作社实行农企对接，农资直购，每年每亩降低成本50元，按服务面积4.8万亩计算可降低成本240万元。同时该社争创的“亨峰”、“仁重”2个自主品牌，年可为社员增收380万元。惠民种植合作社发展育种田2700亩，在全区推广优质小麦品种8万余亩，每亩增产100斤，为农增收800余万元。凯丽农机合作社实行集中统防统治，以村为单位连片进行农机施药作业，可为农户每亩降低防治成本22元，服务面积2.7万亩，共降低成本60万元。', '天亮合作社坚持以科技兴农，与中科院对接，引导农民开展优质小麦、玉米、谷子等粮食作物的提纯、育苗、种植、销售等，每亩增产', '通过实施“旗帜供销”工程，区供销社在区、乡两级党组织的支持下，率先在天亮合作社推广“三位一体”党建融合发展模式，建立了由区供销社、柳林屯乡、合作社共同组成的联合社党总支，成立了5个党支部，覆盖拥有党员155名。联合社党总支制定的“三优先”（即入社社员优先、外出打工家庭优先、带资入社者优先）、“三统一”（即统一安排农机作业、统一选购优良品种、统一购进农药化肥）服务措施，提升了农民对合作社的“信任度”。在农忙时节，联合社组织党员义务突击队，帮助留守困难农户耕播土地、浇水施肥、送肥运粮，从点滴做起，从细微处着想，把党的温暖实实在在地送到千家万户，营造了社农共兴的浓重氛围。天亮合作社推广“三位一体”党建融合发展的做法被省供销社任民主任总结为“把党组织建在农村产业链上”的一项创新。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>内蒙古乌兰察布市供销社到邯郸市供销社学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202305/t20230508_1866775.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['日下午，乌兰察布市供销社副主任马玺一行4人到邯郸市供销社就供销系统综合改革及社有企业管理等方面学习考察并交流座谈。市社党组书记、理事会主任、供销集团董事长张军，党组成员、监事会副主任董建强，三级调研员崔勇出席座谈。市供销集团、市社基层处、业务处负责同志参加座谈。座谈会由董建强同志主持。', '张军首先对马玺一行来邯表示欢迎。并介绍了邯郸市供销社系统近年来的发展情况。他表示，邯郸市供销社充分发挥较完备的组织体系、区域优势和服务优势。在综合改革、服务城乡居民平台建设、社有企业改革等方面进行了积极探索和创新实践，积攒了一些经验，取得了一定成绩。乌兰察布市供销社和邯郸市供销社双方发展理念契合，合作前景广阔。希望双方抓住此次考察组一行来邯的良好契机，在推进综合改革、农业种植及农业生产社会化服务、农业品上行及工业品下行等领域充分沟通交流，取长补短，实现共同发展。', '在介绍了乌兰察布市供销社的目前发展情况后。马玺对邯郸市供销社目前取得的良好发展态势表示十分钦佩，并表达了两地供销社深入沟通合作的愿望。他表示，来到邯郸这座具有三千年历史极具人文厚重感的城市，所听所见都留下了十分深刻的印象。乌兰察布市供销社作为全国最早一批进行社有企业改革的供销系统，发展比较缓慢。此次来到邯郸，就是要虚心向邯郸市社学习深化综合改革和促进社有企业发展等方面的先进经验。结合乌兰察布市本地的区域优势和农业种植优势，探索出一条适合本地供销系统发展的好路子和新路子。', '会上，三级调研员崔勇向考察组介绍了邯郸市社近年来在综合改革方面取得的成功经验和目前相关情况。供销集团总经理王瑞良介绍了邯郸供销集团发展及所属企业管理等方面情况。乌兰察布市政府办干部张国强、乌兰察布市供销社盛弘公司总经理李艳明分别就农业体系化建设和社有企业发展壮大等方面进行了阐述。', '在随后的学习考察中，马玺一行在邯郸市社党组成员、监事会副主任董建强、三级调研员崔勇陪同下，到邯郸市产权交易中心、邯郸市供销社为民服务中心、', '冀疆合作新疆特产精品店和邯郸市供销社农副产品市场、曲周县供销社进行了实地考察观摩，考察组同志对邯郸市社在农村产权交易、农产品上行、工业品下行、积极服务城乡居民生活等方面取得的良好经济效益和社会效益表示十分赞赏。', '在曲周县供销社，马玺一行先后到大河道供销社、河北政麟食品有限公司、相公庄供销社、河北曲辰农业科技有限公司进行实地考察，并就结合乌兰察布当地实际，如何借鉴曲周县社深化供销社综合改革成功经验，促进当地基层社发展等方面与曲周县社深入交流。', '考察组一行还到峰峰矿区新能源燃料生产厂家（河北玺尧新能源科技有限公司）实地考察，并赴邢台威县调研在运行河北建投新能源加注站点。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>邯郸供销社赴河北农大考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-02-11</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23700/202207/t20220713_1586339.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['月9日，供销社理事会副主任路志长，供销集团总经理王瑞良、副总经理徐鹏，万领再生资源有限公司总经理韩玘君一行四人赶赴保定河北农大，就农业高产示范园项目向农大专家请教学习。', '国家北方山区农业工程技术研究中心执行副主任、河北农业大学乡村振兴研究院总工程师、教授、博士生导师李博文，河北省山区研究所研究员张建恒、张爱军，河北农业大学乡村振兴研究院副主任董兵，河北农业大学乡村振兴研究院项目联络员郭兆熊一同参加了座谈。', '李博文院长指出，按照国家农业农村部提出“三品一标”的新内涵，即品种培优、品质提升、品牌打造和标准化生产。一是在现有1000亩规模上以示范种植为主，突出一个主题，体现主要功能，加入文化元素；二是一定要有先进的农业生产技术装备，降低用人成本；三是有现代经营理念，做好“范围经济”。以示范带动周边产业种植，打造自主农产品品牌，发挥供销社流通营销优势，逐步做大做强。其他专家教授也分别就该项目前景规划给予深入分析，并给出了指导性意见。', '路主任对河北农大专家的指导性意见表示感谢，通过这次学习考察，进一步开拓了我们的思路，明确了方向。双方将以此为契机，就未来在乡村振兴，农业开发、种植、育种等方面，继续开展深入合作。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>我委赴鄂尔多斯和南京学习考察国资监管信息化建设</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-10-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23699/202010/t20201020_1384416.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['2020年10月12日-14日，我委刘存社和马勇同志带领统运处、内审处相关同志前往鄂尔多斯、南京市国资委，就国资监管信息化建设工作进行了学习考察，通过座谈讨论、实地观摩等方式，详细了解两市国资监管信息平台建设情况，并与北京久其软件股份有限公司就我市国资监管信息化建设方向进行了沟通。', '通过学习交流，我委将充分借鉴吸收两地市国资监控信息化平台优点，结合我市实际，按照“移植整合、各期同建、先易后难、尽快推进”的思路，加快推进邯郸国资国企在线监管平台建设：一是围绕增强企业活力和提高效率，聚焦监管内容，该管的要科学管理、决不缺位，不该管的要依法放权、决不越位。二是依托信息化工作平台实现信息的动态采集和数据价值的深度挖掘，监测资本运作情况，确保国有资本安全；通过事前规范、事中监控、事后问责，提高国有资本收益，促进国资监管效果和管理能力全方位提升。三是以履行“出资人职责”监管为核心，建设覆盖系统内各监管企业的信息化应用系统，形成上下联动的信息化监管格局，实现国有企业业务流、信息流、资金流的实时监管，实现对国有资本存量、增量以及国有经济运行态势的动态分析，建立横向到边、纵向到底的信息化监管体系并持续发挥作用。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>秦皇岛市国资委来邯学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23699/202106/t20210603_1457625.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['6月2日，秦皇岛市国资委党委书记、主任郭书亮一行到邯郸市国资委学习考察，我委党委书记、主任赵琰辉及有关领导和处室参加了座谈交流。', '座谈会上，双方围绕国企改革三年行动、加强国资监管、外部董事选派管理、企业工资总额管理和企业负责人薪酬、监管企业项目投资管理、退休人员社会管理常态化接收等工作进行了座谈交流。达到了交流经验、相互学习、共同提高的目的。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>长沙市到我市考察学习光荣院标准化建设和烈士纪念设施建设工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23724/201808/t20180802_827204.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['，长沙市、长沙县、浏阳市民政局及湖南革命陵园管理处一行9人，到我市考察学习光荣院标准化建设和烈士纪念设施建设工作。考察团一行听取了我市光荣院规范化、标准化建设及烈士纪念设施管理保护工作情况介绍，并到晋冀鲁豫烈士陵园、磁县光荣院进行了实地考察，详细了解光荣院标准化建设、经费投入和运行机制等情况，就烈士陵园管理工作进行了研讨。考察团一行对我市的光荣院规范化、标准化建设及烈士纪念设施管理保护工作给予了高度评价，并感谢我局对本次考察的精心安排，希望以后两地民政部门多学习、多交流、多联系，促进两地民政事业更好更快的发展。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>我局组织葡萄种植大户赴紫藤葡萄庄园学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23708/201808/t20180802_826498.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['紫藤葡萄庄园是集葡萄、蔬菜采摘、农业观光、休闲娱乐等为一体的综合性新型农业示范园区，是国家休闲农业和乡村旅游四星级企业、河北省休闲农业和乡村旅游示范点。庄园规划占地420亩，总投资5600万元，园内有伊豆锦、无核红宝石、金手指、巨玫瑰等中外优良葡萄品种20余个，试验品种10余个，葡萄品质纯正优良，口感风味上乘。', '紫藤葡萄庄园总经理、省劳动模范、“葡萄大王”赵贵勤热情接待了我市一行。他带领大家参观了整个园区，并细致讲解了葡萄庄园的建设布局、葡萄品种、特点及生产技术。参观结束后，紫藤庄园、石家庄市林业局与我市一行进行了交流座谈。赵经理首先现身说法，简要回顾了庄园发展历程，他认为葡萄业和观光采摘园发展方兴未艾、前景广阔，下一步应着重提升葡萄品质，加强园区综合服务能力，用一流品质', '叫响一流品牌。石家庄市林业局交流中指出，应充分发挥政府的引导作用和服务职能，鼓励林果观光采摘园发展，并通过示范带动，吸纳周边群众参与。我市葡萄种植大户们纷纷表示，希望与紫藤葡萄庄园建立良好的合作关系，希望赵经理抽出时间和精力，到邯郸葡萄种植基地，现场指导观光采摘园规划和建设。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>湖南省永州市考察团到市行政审批局学习考察</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23737/201808/t20180802_836337.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['月10日上午，湖南省永州市在市编办室务会成员、市审改办副主任、市事业单位登记管理局局长蒋欧林带领下一行10人到我局就行政审批制度改革事宜进行学习考察，我局副调研员张革云、市编办副主任游洋陪同考察。', '考察组现场参观了我局的公章墙、各业务处室亮点工作以及群众服务热线运行平台。现场参观结束后，在我局第一会议室召开了座谈会，副调研员张革云就考察组关心的问题，重点围绕市行政审批局组建筹备、人员和事项划转、亮点工作打造及实际运行中遇到的困难和问题等有关情况分别作了详细介绍。考察组一致认为，邯郸市行政审批局在成立短短一年的时间内，各项工作迅速步入正规，通过开展流程优化等一系列工作，大幅度提升了审批效率，同时打造了许多创新性的亮点工作，行政审批改革成效显著，值得认真学习借鉴，回去之后将把“邯郸经验”全面消化吸收，指导永州的行政审批改革。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市工信局赴邢台考察学习大气污染防治有关工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2018-08-02</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdzfxxgk/gszbm/auto23727/201808/t20180802_821519.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['9月1日，局领导张继祥、王友田一行赴邢台考察学习大气污染防治有关工作。我局先后到旭阳焦化和德龙钢铁，现场参观了企业清洁生产和现场管理工作，并围绕大气污染防治有关工作，与邢台工信部门及企业进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>永年区委主要领导率队赴丽水晋江考察学习共享工厂建设和产业集群发展先进经验</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202404/t20240424_2036813.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为全面落实市委、市政府“共享工厂”建设工作要求，加快推动永年紧固件产业转型升级，4月23日，区委书记马洪广率队先后到浙江丽水市、福建晋江市，实地考察学习“共享工厂”建设和产业集群发展相关情况。区领导申建民、唐伟强参加。', '在丽水市考察期间，马洪广一行在吉德实业有限公司董事长陈鹤辉等陪同下参观了公司生产车间，详细了解“共享工厂”运作情况。在座谈会上，马洪广介绍了永年区情概况和紧固件产业发展情况，他指出，吉德公司“共享工厂”链条完整，涵盖酸洗磷化、热处理、产品成型等各个环节，能够为行业企业提供优质的原材料改制、产品代加工等服务，已经成为通过“共享工厂”模式发展自身的成功范例。永年将充分吸收借鉴公司先进做法，积极推动资源共享、技术共享、设备共享等，切实以龙头企业培育推动产业向高端化、智能化、绿色化发展。陈鹤辉表示，永年区紧固件产业基础厚实，市场空间广阔，对双方在“共享工厂”方面开展合作充满期待，将加强公司同永年有关企业的沟通对接，共同开创互利共赢的良好局面。', '在晋江考察期间，马洪广一行先后参观了永佳智能装备产业园、信泰公司、晋江经验馆等，详细了解晋江市装备制造及智能装备等产业集群发展、鞋服纺织产业数字化升级等有关情况，晋江市人大常委会主任林仁达等陪同考察。马洪广表示，晋江市产业底蕴雄厚，拥有鞋服、纺织、建材、食品、智能装备和医疗健康等超百亿和上千亿规模的产业集群，全市综合经济实力连续多年居浙江省县域首位，形成了独具特色的“晋江经验”。永年区将积极学习借鉴“晋江经验”，推动永年紧固件产业集群实现高质量发展。林仁达表示，紧固件产业作为永年支柱产业，基础雄厚、链条完整、特色鲜明，在全国有着巨大影响力，晋江市愿就产业集群发展开展全方位合作交流，助力永年紧固件产业高端化、智能化、绿色化发展。', '据悉，丽水吉德实业有限公司以生产、销售汽车零部件、紧固件、阀门、冷墩钢材、线材为主，曾获“国家高新技术企业”“国家科技型中小企业”等荣誉。', '晋江市位于福建东南沿海，2023年地区生产总值3363.50亿元，总量分别占福建省、泉州市的6.2%和27.6%。县域经济基本竞争力居全国第4，综合经济实力连续29年居全省县域首位。市场主体超30万户、民营企业近10万家和上市公司51家。拥有1个超三千亿（鞋服）、1个超千亿（纺织）、2个超五百亿（建材、食品）、2个超三百亿（智能装备、医疗健康）产业集群。2002年，时任福建省长的习近平同志总结提出“晋江经验”，成为晋江高质量发展的行动指南和制胜法宝。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>永年区委主要领导赴永康考察学习产业集群发展和共享模式运作先进经验</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202404/t20240423_2036601.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为全面落实市委、市政府“共享工厂”建设工作要求，加快推动永年紧固件产业转型升级，4月22日，区委书记马洪广率队赴永康市考察学习产业集群发展和“共享模式”先进经验。区领导申建民、唐伟强参加。', '马洪广一行在永康市委常委、市政府党组成员李浩峰陪同下，先后参观了国际会展中心、总部中心等地。考察期间马洪广一行观看了永康市宣传片，并详细了解了永康市产业集群发展有关情况。他表示，永康市产业底蕴深厚，发展势头强劲。特别是在推动产业集群高端化、智能化、数字化发展和以“共享模式”发展会展经济等方面，取得了显著成效，积累了丰富经验。当前，永年正在大力实施紧固件产业转型升级三年行动，将充分吸收借鉴永康市推动产业集群发展的有益做法和创新举措，积极学习永康国际会展中心运作经验，为全面推动紧固件产业高端化、智能化、绿色化发展注入强大活力。', '李浩峰表示，永年区作为中国紧固件之都，紧固件产业基础雄厚、链条完整、特色鲜明，产业集群步入高质量发展快车道。永康市将积极做好牵线搭桥工作，协助引入产业数字化智能化项目，推广好永康会展经济有关经验，助力永年紧固件产业加快转型升级，实现高端化、智能化、绿色化发展。', '据悉，永康市是全国闻名的中国五金之都，五金产业久负盛名，五金产业集群被评为“全国百佳产业集群”。国际会展中心内的世界五金精品馆汇集了永康市门业、杯业、车业、电动工具、电器厨具、休闲器具、技术装备、金属材料等五金产品和医疗器械、智能制造等产品数万种。永康总部中心入驻企业和服务机构近千家，是现代服务业集聚区和产业转型的新高地。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>永年区赴丽水晋江学习考察共享工厂建设和产业集群发展先进经验</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202404/t20240426_2037451.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['4月23日，永年区委书记马洪广率队先后到浙江丽水市、福建晋江市，实地考察学习“共享工厂”建设和产业集群发展相关情况。 在丽水市考察期间，马洪广一行在吉德实业有限公司董事长陈鹤辉等陪同下参观了公司生产车间，详细了解“共享工厂”运作情况。在座谈会上，马洪广介绍了永年区情概况和紧固件产业发展情况，他指出，吉德公司“共享工厂”链条完整，涵盖酸洗磷化、热处理、产品成型等各个环节，能够为行业企业提供优质的原材料改制、产品代加工等服务，已经成为通过“共享工厂”模式发展自身的成功范例。永年将充分吸收借鉴公司先进做法，积极推动资源共享、技术共享、设备共享等，切实以龙头企业培育推动产业向高端化、智能化、绿色化发展。陈鹤辉表示，永年区紧固件产业基础厚实，市场空间广阔，对双方在“共享工厂”方面开展合作充满期待，将加强公司同永年有关企业的沟通对接，共同开创互利共赢的良好局面。 在晋江考察期间，马洪广一行先后参观了永佳智能装备产业园、信泰公司、晋江经验馆等，详细了解晋江市装备制造及智能装备等产业集群发展、鞋服纺织产业数字化升级等有关情况，晋江市人大常委会主任林仁达等陪同考察。马洪广表示，晋江市产业底蕴雄厚，拥有鞋服、纺织、建材、食品、智能装备和医疗健康等超百亿和上千亿规模的产业集群，全市综合经济实力连续多年居浙江省县域首位，形成了独具特色的“晋江经验”。永年区将积极学习借鉴“晋江经验”，推动永年紧固件产业集群实现高质量发展。林仁达表示，紧固件产业作为永年支柱产业，基础雄厚、链条完整、特色鲜明，在全国有着巨大影响力，晋江市愿就产业集群发展开展全方位合作交流，助力永年紧固件产业高端化、智能化、绿色化发展。 据悉，丽水吉德实业有限公司以生产、销售汽车零部件、紧固件、阀门、冷墩钢材、线材为主，曾获“国家高新技术企业”、“国家科技型中小企业”等荣誉。 晋江市位于福建东南沿海，2023年地区生产总值3363.50亿元，总量分别占福建省、泉州市的6.2%和27.6%。县域经济基本竞争力居全国第4，综合经济实力连续29年居全省县域首位。市场主体超30万户、民营企业近10万家和上市公司51家。拥有1个超三千亿（鞋服）、1个超千亿（纺织）、2个超五百亿（建材、食品）、2个超三百亿（智能装备、医疗健康）产业集群。', '4月23日，永年区委书记马洪广率队先后到浙江丽水市、福建晋江市，实地考察学习“共享工厂”建设和产业集群发展相关情况。', '在丽水市考察期间，马洪广一行在吉德实业有限公司董事长陈鹤辉等陪同下参观了公司生产车间，详细了解“共享工厂”运作情况。在座谈会上，马洪广介绍了永年区情概况和紧固件产业发展情况，他指出，吉德公司“共享工厂”链条完整，涵盖酸洗磷化、热处理、产品成型等各个环节，能够为行业企业提供优质的原材料改制、产品代加工等服务，已经成为通过“共享工厂”模式发展自身的成功范例。永年将充分吸收借鉴公司先进做法，积极推动资源共享、技术共享、设备共享等，切实以龙头企业培育推动产业向高端化、智能化、绿色化发展。陈鹤辉表示，永年区紧固件产业基础厚实，市场空间广阔，对双方在“共享工厂”方面开展合作充满期待，将加强公司同永年有关企业的沟通对接，共同开创互利共赢的良好局面。', '在晋江考察期间，马洪广一行先后参观了永佳智能装备产业园、信泰公司、晋江经验馆等，详细了解晋江市装备制造及智能装备等产业集群发展、鞋服纺织产业数字化升级等有关情况，晋江市人大常委会主任林仁达等陪同考察。马洪广表示，晋江市产业底蕴雄厚，拥有鞋服、纺织、建材、食品、智能装备和医疗健康等超百亿和上千亿规模的产业集群，全市综合经济实力连续多年居浙江省县域首位，形成了独具特色的“晋江经验”。永年区将积极学习借鉴“晋江经验”，推动永年紧固件产业集群实现高质量发展。林仁达表示，紧固件产业作为永年支柱产业，基础雄厚、链条完整、特色鲜明，在全国有着巨大影响力，晋江市愿就产业集群发展开展全方位合作交流，助力永年紧固件产业高端化、智能化、绿色化发展。', '据悉，丽水吉德实业有限公司以生产、销售汽车零部件、紧固件、阀门、冷墩钢材、线材为主，曾获“国家高新技术企业”、“国家科技型中小企业”等荣誉。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>永年区赴广州学习考察共享工厂并出席洺湖公园文旅项目签约仪式</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202404/t20240416_2035238.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['4月15日，永年区政府区长张宁带队赴广东番禺高新科技园区，学习考察“共享工厂”先进经验，参加洺湖文旅项目签约仪式。', '在签约仪式上，张宁详细介绍了永年区情概况和文旅产业发展情况，他表示，永年区位优势突出，历史文化悠久，文旅产业发展迅猛，广东梦景公司依托多年景区建设运营经验，结合永年优质的文旅资源优势，规划建设了总投资约10亿元的洺湖文旅项目，必将打造成为邯郸文旅新地标，推动永年文旅产业实现长远发展，项目正式签约，是双方的“珠联璧合之作”。梦景公司董事长苟天林表示，公司将结合永年的文化与产业，挖掘丰富历史和文化资源，发挥科技、管理等优势，将项目打造成为绿色、生态、智慧、文化的旅游目的地，把洺湖打造成邯郸市全域旅游城市的会客厅。', '签约仪式结束后，张宁赴广州番禺创新科技园，实地考察入驻园区的广州市特博威尔餐具有限公司、广州市易司拓科技有限公司、希恩和(广州)汽车设备有限公司、广州埃克森智能装备有限公司，参考学习“共享工厂”建设模式和先进经验。张宁表示，推动“共享工厂”建设是优化资源配置、提升产出效率、促进制造业高质量发展的重要举措。番禺创新科技园产业定位精准、发展势头强劲、管理方式先进，典型经验和做法值得学习借鉴。永年区将认真学习借鉴，推动“共享工厂”建设走深走实，加快产业向高端化、智能化、绿色化方向发展，塑造发展新优势、赢得未来主动权。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市供销社考察组赴西安市供销社对接考察学习</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202404/t20240419_2035921.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['2024年4月15日至4月16日，市供销社党组副书记、监事会主任陈永朝带队，赴西安市供销社对接考察学习社有企业发展和网络建设等工作。市社三级调研员崔勇、郭茶民参加考察。西安市供销社监事会主任杨三明全程陪同。', '考察组一行先后到西安供销助农直播基地、西安盛合实业有限公司众芸智选农产品展厅、西安市干鲜果副食公司详细了解了电商运营、农产品流通和社有企业发展工作。在西安供销智慧云仓网络科技有限公司和西安市新城区，考察组参观考察了西安市供销社业务拓展和“两网融合”工作开展情况。考察组分别在干鲜果副食公司市场和供销智慧云仓网络科技公司与企业座谈，就社有资产改造升级、新型业态拓展、物资回收利用等工作进行了深入交流。', '午街道丰惠商超子午仓配中心、长安供销社史馆、五台供销社五台南山云舍酒店、王莽为农服务中心、丰惠购物中心引镇店、大兆街道长安供销中央厨房和净菜加工基地、丰益公司蔬菜直通车惠民工程荔知湾小区北门便民蔬菜亭等，实地参观学习了长安区供销社在基层社建设，农资、日用品流通服务等方面的先进经验。长安区供销社主任闫海秦陪同考察。', '在长安区供销社企业集团总部举行的座谈会上，杨三明对邯郸市社考察组的到来表示欢迎，详细介绍了西安市社在企业发展、流通网络建设和监事会工作方面的经验。闫海秦介绍了长安区供销社所属企业集团和产业集团及基层社发展情况。', '陈永朝对西安市供销社的经验分享表示感谢，并对当地供销社发展的良好势头表示钦佩。他表示，此次来西安考察学习，一方面了解了西安市社在企业发展、基层组织建设等方面的具体措施，所见所听所感收获颇丰。另一方面也学习了西安市社在发挥监事会职能，助推企业健康发展方面好的经验。此次考察学习将对邯郸市供销社今后发展提供新的好的思路，希望两地供销社结合当地实际，加强沟通交流，互学互鉴互进，促进共同发展。', '崔勇表示，通过学习西安市社在发展基层供销社、打通流通堵点等方面的经验，为邯郸市社做好千县千社和建网、强网、用网工作提供了新思路、新方法。', '郭茶民表示，西安市社在助推企业发展方面的先进经验和具体做法，为邯郸市社开展好审计监督工作起到了积极借鉴作用。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>经开区领导率队到冀南新区学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/gkq/202310/t20231026_1974088.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['10月25日下午，区党工委副书记兼管委会常务副主任张敬超率队到冀南新区学习考察，动员全区上下学理念、找差距、定措施、补短板，持续解放思想、奋发进取，加快推动高质量发展。区党工委副书记兼管委会副主任张存良，区领导张进山、成国春、彭钋、尹永华、李淼参加活动。冀南新区党工委副书记兼管委会主任杨万春陪同。 在冀南新区学习考察期间，区领导一行先后到运达风电可再生能源零碳高端装备制造产业园、富康智能制造产业园、中电光谷邯郸智造中心、职教城、中关村信息谷、建交产业园等项目，认真学习冀南新区发展理念、招商模式、项目建设等方面先进经验做法。 在两区工作交流座谈会上，杨万春对区领导一行表示欢迎。他指出，经开区和冀南新区作为兄弟单位，双方在体制机制、运营管理等方面具有很多共同之处，近年来，经开区加快完善基础设施体系，积极引上重大产业项目，推动营商环境和经济社会高质量发展取得显著成效。希望双方加强考察交流，相互学习借鉴先进经验做法，互相取长补短，加快发展步伐，真正发挥主引擎、发动机作用，为加快建设现代化区域中心城市贡献力量。 区领导表示，冀南新区发展理念先进，在创新招商方式和管理模式上走在了前列，闯出了一条高质量发展的新路子。全区上下要以此次学习考察为契机，全面对标对表冀南新区，不仅要学理念、学内涵，还要学实质、学精髓，进一步解放思想、奋发进取，努力在招商引资、项目建设、产业发展、运营模式等方面探索新路径。同时，要进一步提振干事创业的精气神，提升工作效能，提高发展能级，确保各项工作取得新成效，实现新突破。 区党政办、社会事务局、建设局、投促局、财政局、经发局、行政审批局、综合执法局、生态环境分局、教文体中心、农业园区、世纪集团、创投集团主要负责同志，各乡镇党委主要负责同志参加活动。', '10月25日下午，区党工委副书记兼管委会常务副主任张敬超率队到冀南新区学习考察，动员全区上下学理念、找差距、定措施、补短板，持续解放思想、奋发进取，加快推动高质量发展。区党工委副书记兼管委会副主任张存良，区领导张进山、成国春、彭钋、尹永华、李淼参加活动。冀南新区党工委副书记兼管委会主任杨万春陪同。', '在冀南新区学习考察期间，区领导一行先后到运达风电可再生能源零碳高端装备制造产业园、富康智能制造产业园、中电光谷邯郸智造中心、职教城、中关村信息谷、建交产业园等项目，认真学习冀南新区发展理念、招商模式、项目建设等方面先进经验做法。', '在两区工作交流座谈会上，杨万春对区领导一行表示欢迎。他指出，经开区和冀南新区作为兄弟单位，双方在体制机制、运营管理等方面具有很多共同之处，近年来，经开区加快完善基础设施体系，积极引上重大产业项目，推动营商环境和经济社会高质量发展取得显著成效。希望双方加强考察交流，相互学习借鉴先进经验做法，互相取长补短，加快发展步伐，真正发挥主引擎、发动机作用，为加快建设现代化区域中心城市贡献力量。', '区领导表示，冀南新区发展理念先进，在创新招商方式和管理模式上走在了前列，闯出了一条高质量发展的新路子。全区上下要以此次学习考察为契机，全面对标对表冀南新区，不仅要学理念、学内涵，还要学实质、学精髓，进一步解放思想、奋发进取，努力在招商引资、项目建设、产业发展、运营模式等方面探索新路径。同时，要进一步提振干事创业的精气神，提升工作效能，提高发展能级，确保各项工作取得新成效，实现新突破。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>磁县人大常委会到我区考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/fx/202312/t20231211_2002422.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['12月5日上午，磁县人大常委会办公室主任史用和带领机关各委室负责人到我区考察学习交流工作。区人大常委会办公室主任路贺军，人大常委会机关各委室负责人参加。', '日上午，磁县人大常委会办公室主任史用和带领机关各委室负责人到我区考察学习交流工作。区人大常委会办公室主任路贺军，', '座谈会上，双方分别介绍了各自人大总体工作情况，并就相关具体事项进行交流。各委室负责同志之间进行了业务工作对接沟通。随后，磁县人大常委会一行考察了广安代表联络站、惠安联络站和大寺上镇代表家站，并给予高度赞赏，表示要全面加强学习对标。', '负责同志之间进行了业务工作对接沟通。随后，磁县人大常委会一行考察了广安代表联络站、惠安联络站和大寺上镇代表家站，并给予高度赞赏，表示要全面加强学习对标。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市乡村振兴局驻村工作队赴郑州未来乡村运营公司学习考察</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202403/t20240307_2025850.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['3月5日，市乡村振兴局驻村工作队一行3人赴郑州未来乡村运营公司进行学习考察。期间，该公司负责人介绍了近两年运用“千万工程”经验打造和美乡村的典型案例，分享了围绕促进农村一二三产业融合发展、增强村集体经济、促进农民增收、实施人居环境整治提升、繁荣发展乡村文化等方面的工作经验和好的做法。', '驻村工作队介绍了所驻前营村的基本情况，分析了当前工作所面临的形势特点，就促进乡村全面振兴存在的难点问题进行了咨询交流。郑州未来乡村运营团队发挥自身专业优势，结合前营村实际情况，对乡村规划发展提出了可行性意见建议。', '驻村工作队介绍了所驻前营村的基本情况，分析了当前工作所面临的形势特点，就促进乡村全面振兴存在的难点问题进行了咨询交流。', '未来乡村运营团队发挥自身专业优势，结合前营村实际情况，对乡村规划发展提出了可行性意见建议。', '“两委”成员将产业融合发展、促进村民增收、强化乡村治理、紧抓文明建设作为重点任务，在增进民生福祉上展现新作为，在推进乡村振兴上走出新路子。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>肥乡区行政审批局赴兄弟区县市局等地考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202403/t20240305_2025527.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['2月29日，局党组书记、局长王月琴带队，先后赴邯郸经济技术开发区行政审批局、邯郸市行政审批局等地开展业务考察学习。局领导班子及主要科室负责同志参加活动。', '局党组书记、局长王月琴表示：此次考察学习活动启示多、收获大，解放了思想，开阔了眼界、明确了方向、拉高了标杆，要秉持创新思维、服务发展大局，构建审批服务新格局，在更高层次、更高境界、更高水平上推进行政审批各项工作。', '交流学习强业务，取长补短促发展。肥乡区行政审批局将以此次考察学习为契机，学先进、找差距、添措施、补短板，真正将“他山之石”化作本土启示，不断提高自身服务质量和服务水平，为肥乡经济社会高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>市卫生健康委副主任韩伟一行赴华西医院成都市成华区中医医院学习考察</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2024-04-07</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202404/t20240407_2033317.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['照市委、市政府及市卫生健康委党组“争第一、创唯一”工作要求，3月22日至23日，市卫生健康委党组成员、副主任韩伟带领老龄健康处及市中心医院项目负责人赴四川大学华西医院和成都市成华区中医医院学习考察老年医学科建设及医养结合工作经验。', '通过考察学习，市卫生健康委与华西医院对下一步在老年医学领域深化合作达成了初步共识。同时学习了成都市成华区中医医院在医养结合区域地方标准制定、医养结合高度融合以及信息化建设等方面先进工作经验。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>磁县财政局到大名县学习考察五好两宜和美乡村建设</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202403/t20240315_2027601.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['近日，县财政局组织人员到大名县财政局就“五好两宜”和美乡村试点项目进行学习交流。座谈会上，大名县财政局详细介绍了“五好两宜”和美乡村试点项目支持范围、规划设计要素、争取程序等内容，分享了如何促进各美其美、美美与共方面的体会和经验。双方就“五好两宜”和美乡村试点项目建设、农村公益事业项目建设、资金使用管理等进行深入探讨和交流。通过此次交流学习，汲取了经验，拓宽了视野，为我县下一步谋划争取“五好两宜”和美乡村试点项目奠定坚实基础。', '“五好两宜”和美乡村试点项目进行学习交流。座谈会上，大名县财政局详细介绍了“五好两宜”和美乡村试点项目支持范围、规划设计要素、争取程序等内容，分享了如何促进各美其美、美美与共方面的体会和经验。双方就“五好两宜”和美乡村试点项目建设、农村公益事业项目建设、资金使用管理等进行深入探讨和交流。通过此次交流学习，汲取了经验，拓宽了视野，为我县下一步谋划争取“五好两宜”和美乡村试点项目奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>对标先进拓思路交流借鉴促提升市供销社赴德州市供销社考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202403/t20240322_2029130.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['为落实市委、市政府“争第一、创唯一”工作要求，对标对表先进典型，拓宽工作思路，创新工作方法，提升工作质效，推动全市供销合作事业高质量发展，3月21日，市社党组副书记、监事会主任陈永朝，党组成员、监事会副主任董建强带队赴德州市供销社考察学习，市社机关党委、组宣处、人劳处、供销集团、盈恒棉业、城郊社等单位有关负责同志参加相关活动。山东省德州市供销社党委副书记、监事会主任张蕾，党委成员、监事会副主任张勇军等全程陪同。', '陈永朝同志一行抵达德州市供销社，首先参观了机关党建文化阵地、党员活动室、谈心谈话室、廉洁文化室等，翻阅了党员活动档案资料，随后在四楼会议室进行了座谈。党委副书记、监事会主任张蕾对邯郸市供销社学习考察组一行表示热烈欢迎，并详细介绍了德州市供销社党建、量化考核、干部管理等方面的先进经验。双方就党建工作、量化考核、企业改制、干部管理、集团管理等方面工作进行了深入交流。陈永朝主任对德州市供销社的热情接待表示感谢，对德州市供销社在党建、量化考核、干部管理等方面的先进经验高度赞赏。同时，就邯郸市供销社积累的典型经验和做法进行了分享，并表示双方要进一步保持紧密联系，推动合作走深走实，实现共赢。', '会后参观学习组先后观摩了德州供销孟农副产品公司黑马蔬菜批发市场、德州供销集团商储超市紫薇园店和德州花园店、德州供销集团供应链公司奥莱广场展销中心等示范点，详细了解集团管理和农业社会化服务、社有企业发展等方面经验做法。', '市社将以此次考察学习为契机，一是深入学习德州市供销社在党建、量化考核、社会化服务等方面的先进经验和做法；二是因地制宜制定方案、细化措施，进一步谋划推进我社亮点工作；三是抓示范带动，参加学习单位和处室将对标对表，努力打造出符合我社实际的亮点工作，供系统内单位学习参考。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>许昌市总工会来邯学习考察劳动公园建设工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/hdxw/202311/t20231107_1980731.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['（邯郸日报记者王英）11月1日至3日，河南省许昌市总工会一行来邯学习考察劳动公园（广场）建设等工会工作。', '考察组先后到市总工会职工书屋，邯郸市劳动主题公园和丛台区、磁县、涉县、峰峰矿区劳动公园（广场），通过实地看、现场问、听介绍、共交流等方式，全方位、多角度、深层次了解劳动公园建设等方面经验做法和特色亮点，并就关心的问题进行了深入探讨与交流。考察组表示，此次学习考察收获良多，特别是劳动公园建设工作，思路新、标准高、效果好，公园设计将劳动元素与本地特色、邯郸文化及职工休闲娱乐巧妙融为一体，各具特色，深受职工群众欢迎。', '通过此次考察，两地间共同学习先进理念，借鉴成功经验，深化交流合作，进一步拓宽工作思路，为今后两地工会加强沟通，互促互进提供了有力支撑。同时,彼此将把互学成果运用到实际工作中，共同推动学习考察成果转化为工会工作高质量发展的思路和举措。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>永年区政府主要领导带队赴广州学习考察共享工厂并出席洺湖公园文旅项目签约仪式</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjqxdt/202404/t20240416_2035192.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['为贯彻落实市委、市政府“共享工厂”建设工作要求，加快推动全区文旅产业发展，助力经济社会高质量发展。4月15日，区长张宁带队赴广东番禺高新科技园区，学习考察“共享工厂”先进经验，参加洺湖文旅项目签约仪式。区政府办、城投集团负责同志参加。', '在签约仪式上，张宁详细介绍了永年区情概况和文旅产业发展情况，他表示，永年区位优势突出，历史文化悠久，文旅产业发展迅猛，广东梦景公司依托多年景区建设运营经验，结合永年优质的文旅资源优势，规划建设了总投资约10亿元的洺湖文旅项目，必将打造成为邯郸文旅新地标，推动永年文旅产业实现长远发展。项目的正式签约，是双方的“珠联璧合之作”。永年将以最贴心的服务、最便利的条件，力促项目早开工、快开工。梦景公司董事长苟天林表示，公司将结合永年的文化与产业，挖掘丰富历史和文化资源，发挥科技、管理等优势，将项目打造成为绿色、生态、智慧、文化的旅游目的地，把洺湖打造成邯郸市全域旅游城市的会客厅。', '签约仪式结束后，区长张宁实地考察了广州番禺创新科技园，深入入驻园区的特博威尔餐具、易司拓科技、希恩和(广州)汽车设备、埃克森智能装备等公司，参考学习“共享工厂”建设模式和先进经验，番禺创新科技园总经理涂善安陪同考察。张宁表示，推动“共享工厂”建设是优化资源配置、提升产出效率、促进制造业高质量发展的重要举措。番禺创新科技园产业定位精准、发展势头强劲、管理方式先进，典型经验和做法值得学习借鉴。永年区将认真学习借鉴，推动“共享工厂”建设走深走实，加快产业向高端化、智能化、绿色化方向发展，塑造发展新优势、赢得未来主动权。', '签约仪式结束后，区长张宁实地考察了广州番禺创新科技园，深入入驻园区的特博威尔餐具、易司拓科技、希恩和(广州)汽车设备、埃克森智能装备等公司，参考学习“共享工厂”建设模式和先进经验，番禺创新科技园总经理涂善安陪同考察。张宁表示，推动“共享工厂”建设是优化资源配置、提升产出效率、促进制造业高质量发展的重要举措。番禺创新科技园产业定位精准、发展势头强劲、管理方式先进，典型经验和做法值得学习借鉴。永年区将认真学习借鉴，推动“共享工厂”建设走深走实，加快产业向']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市机关事务管理局赴郑州市石家庄市学习考察公物仓建设工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/bmdt/bm/jgswj/202309/t20230905_1945280.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['为提高我市公物仓管理水平，规范管理体制和运营机制，8月中旬，市机关事务管理局联合市财政局赴郑州市、石家庄市学习考察公物仓建设工作。 考察组通过交流座谈、参观实体公物仓、观看管理平台演示等方式，详细了解了郑州市公物仓、石家庄市公物仓的制度建设、日常运行、仓库管理等方面的经验做法，为我市推进公物仓建设提供有益借鉴。 市机关事务管理局将以“坚持勤俭办一切事业”为原则，建立健全公物仓保障机制，加快推进我市公物仓建设，有效盘活闲置资产，推进国有资产共享共用，为服务全市中心工作、助力节约型机关建设作出积极贡献。', '为提高我市公物仓管理水平，规范管理体制和运营机制，8月中旬，市机关事务管理局联合市财政局赴郑州市、石家庄市学习考察公物仓建设工作。', '考察组通过交流座谈、参观实体公物仓、观看管理平台演示等方式，详细了解了郑州市公物仓、石家庄市公物仓的制度建设、日常运行、仓库管理等方面的经验做法，为我市推进公物仓建设提供有益借鉴。', '市机关事务管理局将以“坚持勤俭办一切事业”为原则，建立健全公物仓保障机制，加快推进我市公物仓建设，有效盘活闲置资产，推进国有资产共享共用，为服务全市中心工作、助力节约型机关建设作出积极贡献。', '，建立健全公物仓保障机制，加快推进我市公物仓建设，有效盘活闲置资产，推进国有资产共享共用，为服务全市中心工作']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>邱县政协到复兴区学习考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/fux/202308/t20230816_1929913.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['8月11日下午，邱县政协主席谢国军带队一行10人，到复兴区就落实市政协党建工作现场会精神，推动政协党建工作提质增效进行学习交流。区政府区长李阳，政协主席李勤芳、副主席薛克勇分别参加。', '考察团一行先后到区政协农林界委员活动室、百家街道政协委员议站、区政协第三功能型党支部进行实地考察，听取了区政协党建工作情况介绍，查看相关资料，并进行了深入交流探讨。', '考察团一行对我区政协党建工作取得的成绩给予高度评价。一致认为，通过学习交流，进一步开阔了视野、启迪了思路、明确了方向。下一步，将认真贯彻全市政协党建工作观摩会精神，积极学习借鉴复兴区的先进经验做法，全面加强政协党建工作，全力推进协商履职平台建设，有效激发委员主体作用，切实把政协制度优势转化为助力基层社会治理的新效能，努力干出新时代人民政协的新样子。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>永年区融媒体中心交流考察促提升学习借鉴谋发展</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/yn/202308/t20230818_1930855.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['8月16日，我区融媒体中心相关人员赴武安市融媒体中心就新媒体运营、机制创新、经营创收等方面工作进行考察学习交流。', '座谈会上，武安市融媒体中心负责人首先就该中心的平台架构、人员构成、资源整合等方面情况进行了介绍；随后双方就媒体融合、新闻宣传、体制建设、经营运营等方面工作进行了深入交流探讨。我区融媒体中心一行还实地参观了武安市融媒体中心直播带货大厅，对直播带货大厅的运营模式、人员组成、产品构成、产品销售、发展历程、经济收益、未来发展思路等情况进行了详细了解。', '通过座谈和实地参观考察，考察组成员一致认为，武安市融媒体建设工作思路新、措施实、成效好，值得学习和借鉴。表示要把此次参观学习到的好经验好做法带回去，并结合实际情况进行优化，运用到实际工作中。同时希望双方今后进一步加强沟通联系，经常开展学习交流活动，相互借鉴，不断创新节目内容和形式，持续探索更好的经营运营方法，携手抓好县级融媒体中心建设管理运营，推动融媒体中心各项工作提档升级。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>山西省武乡县政协来磁学习考察</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/cx/202307/t20230717_1916202.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['5月8日上午，山西省武乡县政协副主席关国庆一行就肿瘤医院管理运行情况来磁县学习考察。县政协副主席胡晓娜参加并主持座谈会。县政协办、卫健局主要负责同志陪同。关国庆一行到磁县肿瘤医院各科室进行了深入的学习考察，详细了解相关情况。在随后召开的座谈会上，关国庆介绍了武乡县准备建设肿瘤医院情况。县肿瘤医院负责人介绍了医院成立、肿瘤研究和治理、医护人员培训等情况。双方还就肿瘤医院为什么建、怎么建、怎么运行进行了深入细致的交流讨论。关国庆对我县肿瘤医院建设、全县医疗卫生建设给予高度评价，希望以此次学习考察为契机，加强联系沟通，开展学习交流，互学互鉴，全力守护群众生命健康。', '日上午，山西省武乡县政协副主席关国庆一行就肿瘤医院管理运行情况来磁县学习考察。县政协副主席胡晓娜参加并主持座谈会。县政协办、卫健局主要负责同志陪同。关国庆一行到磁县肿瘤医院各科室进行了深入的学习考察，详细了解相关情况。在随后召开的座谈会上，关国庆介绍了武乡县准备建设肿瘤医院情况。县肿瘤医院负责人介绍了医院成立、肿瘤研究和治理、医护人员培训等情况。双方还就肿瘤医院为什么建、怎么建、怎么运行进行了深入细致的交流讨论。关国庆对我县肿瘤医院建设、全县医疗卫生建设给予高度评价，希望以此次学习考察为契机，加强联系沟通，开展学习交流，互学互鉴，全力守护群众生命健康。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>衡水市农民合作社高质量培训班考察团来肥乡区参观学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/fx/202309/t20230919_1951469.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['9月16日-17日，衡水市农民合作社高质量培训班考察团一行56人来肥乡区考察学习农民合作社高质量发展和规范化运营建设工作。', '考察团认为肥乡区在农民合作社高质量发展推广中结合“企业+村党支部+产业基地+农户”发展模式，实现了农民合作社规范化运营、专业化发展，在培育富民产业、助力乡村振兴等方面发挥了重要作用。表示要认真学习肥乡区农民合作社的成功经验和做法，探索符合当地实际的农民专业合作社运营模式。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>邯郸经开区赴长沙考察学习农产品批发市场建设经验</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024-01-12</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202401/t20240112_2014270.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为高标准高质量推动“河北净菜”现代产业园建设，1月9日至10日，邯郸经济技术开发区党工委副书记兼管委会副主任张存良带队赴长沙考察学习农产品批发市场建设经验。 考察组先后到红星全球农批中心、黄兴海吉星国际农产品物流园，实地查看了现代农产品物流产业园总体布局、建设运营、智慧物流等情况，并详细了解了项目发展模式、技术支撑、品牌打造、销售渠道等方面情况。张存良表示，要以此次考察学习为契机，充分借鉴先进理念和做法，综合运用“互联网+”思维，以农产品运营主体为核心，打造优质特色农产品供应链，不断加大特色农产品品牌推介力度，持续提升农产品附加值，增强市场影响力，切实将我区资源优势、交通优势转化为产业优势、项目优势，推动“河北净菜”现代产业园项目高标准高质量实施，努力将南大堡蔬菜市场打造成为全国一流的农产品综合批发市场。 红星全球农批中心项目由红星实业集团有限公司投资建设，是中部地区规模最大、设施最全、产品最丰富的农副产品综合集群交易市场，采用全新数字化交易，线上与线下同步，聚力打造集进出口交易、物流、仓储、配送、清关报检、电子商务、价格形成、信息发布、拍卖、展示展销于一体的现代农批综合体。 黄兴海吉星国际农产品物流园由长沙马王堆农产品股份有限公司投资建设，以优化蔬菜城市流通、做大做强海鲜水产为主，绿色食品为辅的核心业务结构，推动传统“菜篮子”工程始终与时代发展同步，发展为线上线下结合、国内商品与国际商品互补、全省农产品互动的一站式综合农产品集散中心。', '为高标准高质量推动“河北净菜”现代产业园建设，1月9日至10日，邯郸经济技术开发区党工委副书记兼管委会副主任张存良带队赴长沙考察学习农产品批发市场建设经验。', '考察组先后到红星全球农批中心、黄兴海吉星国际农产品物流园，实地查看了现代农产品物流产业园总体布局、建设运营、智慧物流等情况，并详细了解了项目发展模式、技术支撑、品牌打造、销售渠道等方面情况。张存良表示，要以此次考察学习为契机，充分借鉴先进理念和做法，综合运用“互联网+”思维，以农产品运营主体为核心，打造优质特色农产品供应链，不断加大特色农产品品牌推介力度，持续提升农产品附加值，增强市场影响力，切实将我区资源优势、交通优势转化为产业优势、项目优势，推动“河北净菜”现代产业园项目高标准高质量实施，努力将南大堡蔬菜市场打造成为全国一流的农产品综合批发市场。', '红星全球农批中心项目由红星实业集团有限公司投资建设，是中部地区规模最大、设施最全、产品最丰富的农副产品综合集群交易市场，采用全新数字化交易，线上与线下同步，聚力打造集进出口交易、物流、仓储、配送、清关报检、电子商务、价格形成、信息发布、拍卖、展示展销于一体的现代农批综合体。', '黄兴海吉星国际农产品物流园由长沙马王堆农产品股份有限公司投资建设，以优化蔬菜城市流通、做大做强海鲜水产为主，绿色食品为辅的核心业务结构，推动传统“菜篮子”工程始终与时代发展同步，发展为线上线下结合、国内商品与国际商品互补、全省农产品互动的一站式综合农产品集散中心。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>武安市伯延镇赴邢台市考察学习电储能项目</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/wa/202303/t20230330_1857585.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['伯延镇赴邢台市考察学习电储能项目。3月26日上午，伯延镇党委、政府邀请市发改局主管副局长马双平、武安市启能新能源公司董事长，邯郸市电网公司、邯郸惠龙电力设计院等相关人员一行10人，赴邢台市500MW光伏发电配套储能项目现场考察学习。伯延镇党委书记杨博、镇长刘佳、人大副主席贾伟参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>涉县县委常委县委办公室主任梁江苏一行到磁考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-03-29</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/cx/202303/t20230329_1857473.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['3月19日，涉县县委常委、县委办公室主任梁江苏，涉县县委常委、宣传部部长薛顺利，涉县政府副县长李宏伟一行到磁考察学习磁县博物馆建设、布展等工作。磁县县领导李永清、王川及县委办、住建局、文广旅局主要负责同志陪同。梁江苏一行先后到北朝考古博物馆、磁州窑博物馆和磁州水墨园考察学习。每到一处，考察组成员都认真听取有关情况介绍，并与陪同人员展开交流探讨，深入学习磁县在博物馆功能定位、文旅资源新媒体推介等方面先进经验。梁江苏表示，本次考察学习，既学到了经验、开阔了视野、开拓了思路，也看到了差距。在今后工作中，要以此次考察学习为契机，进一步借鉴磁县发展文旅事业的好经验好做法，更深一步挖掘涉县优质文旅资源，探索具有涉县特色的文化旅游发展新路子。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>湖南省岳阳市人大常委会党组成员副主任赵岳平一行到邱县考察学习义务教育先进经验做法</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/qx/202304/t20230414_1861372.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['湖南省岳阳市人大常委会党组成员、副主任赵岳平一行到邱县考察学习义务教育先进经验做法 - 邯郸市人民政府', '湖南省岳阳市人大常委会党组成员、副主任赵岳平一行到邱县考察学习义务教育先进经验做法', '4月12日上午，湖南省岳阳市人大常委会党组成员、副主任赵岳平一行到邱县考察学习义务教育先进经验做法，市人大教科文卫工委主任邱江宾、市人大三级调研员赵剑凌，县人大常委会副主任陈小光、娄彬，县政府副县长胡桂芹，人大办、教体局负责同志陪同考察。考察组一行先后到二中附小、奥博中学，就校园文化、办学特色及管理模式等情况进行实地调研，围绕民办学校教师编制、义务教育和高中教育力量如何摆布等进行座谈交流，对我县义务教育给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>经开区领导带队赴保定考察学习基础设施项目建设工作</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/gkq/202307/t20230712_1898934.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['为全面落实市委、市政府工作要求，不断提升基础设施建设水平，为全区高质量发展提供有力支撑，7月11日，区党工委副书记兼管委会副主任张存良带领相关部门负责同志，到保定考察学习基础设施项目建设工作。保定市发改委二级调研员樊运会陪同。 区领导一行先后到环城水系大本营、黄花沟公园、韩村安置区、东廉良安置区、保定深圳高新技术创新产业园、深保大道以北路网、国际医疗基地等项目现场，认真学习保定市在老旧小区改造、背街小巷改造提升、城中村改造等方面的好经验、好做法。 随后，双方召开座谈会，就基础设施项目建设工作进行深入沟通交流。樊运会对区领导一行表示欢迎，并介绍了保定市基础设施建设规划、专项债券资金使用、后期运行维护等情况。他说，保定和邯郸都是国家历史文化名城，在城市建设方面有很多共同之处，邯郸经开区是邯郸发展的先行区，在城市有机更新、基础设施建设等方面理念先进、成效明显。希望双方加强沟通交流，相互学习借鉴，加快推动基础设施建设再上新台阶，共同促进区域经济社会高质量发展。 区领导对保定市发改委的热情接待表示感谢，指出近年来，保定市抢抓机遇，大力实施城市改造提升和基础设施建设，城乡面貌焕然一新，经验做法值得学习。邯郸经开区将以此次考察为契机，持续解放思想、奋发进取，认真学习保定市先进的城市规划建设理念和管理运营经验，结合我区实际，在城市有机更新、产城融合、城乡统筹等方面积极谋划布局，特别是认真学习保定市专项债使用和政府引导、市场化运作的先进模式，切实解决基础设施建设资金不足等方面问题，扎实推动全区各项事业提质增效。 区党政办、财政局、建设局、社会事务局、经发局、综合执法局、卫健局、文教局及4个乡镇负责同志参加考察活动。', '为全面落实市委、市政府工作要求，不断提升基础设施建设水平，为全区高质量发展提供有力支撑，7月11日，区党工委副书记兼管委会副主任张存良带领相关部门负责同志，到保定考察学习基础设施项目建设工作。保定市发改委二级调研员樊运会陪同。', '区领导一行先后到环城水系大本营、黄花沟公园、韩村安置区、东廉良安置区、保定深圳高新技术创新产业园、深保大道以北路网、国际医疗基地等项目现场，认真学习保定市在老旧小区改造、背街小巷改造提升、城中村改造等方面的好经验、好做法。', '随后，双方召开座谈会，就基础设施项目建设工作进行深入沟通交流。樊运会对区领导一行表示欢迎，并介绍了保定市基础设施建设规划、专项债券资金使用、后期运行维护等情况。他说，保定和邯郸都是国家历史文化名城，在城市建设方面有很多共同之处，邯郸经开区是邯郸发展的先行区，在城市有机更新、基础设施建设等方面理念先进、成效明显。希望双方加强沟通交流，相互学习借鉴，加快推动基础设施建设再上新台阶，共同促进区域经济社会高质量发展。', '区领导对保定市发改委的热情接待表示感谢，指出近年来，保定市抢抓机遇，大力实施城市改造提升和基础设施建设，城乡面貌焕然一新，经验做法值得学习。邯郸经开区将以此次考察为契机，持续解放思想、奋发进取，认真学习保定市先进的城市规划建设理念和管理运营经验，结合我区实际，在城市有机更新、产城融合、城乡统筹等方面积极谋划布局，特别是认真学习保定市专项债使用和政府引导、市场化运作的先进模式，切实解决基础设施建设资金不足等方面问题，扎实推动全区各项事业提质增效。', '区党政办、财政局、建设局、社会事务局、经发局、综合执法局、卫健局、文教局及4个乡镇负责同志参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>魏县县委常委组织部长吴建宇外出学习考察人才工作</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/wx/202305/t20230523_1870282.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['近日，在市委组织部的组织安排下，魏县县委常委、组织部长吴建宇及有关同志赴深圳、武汉学习考察人才工作。', '在深圳考察期间，吴建宇一行先后深圳市罗湖区人才服务中心和深圳市人才集团进行考察学习，与深圳市罗湖区组织部人才工作局副局长张玉洁，深圳市人才集团副总经理田雨及有关方面负责同志进行了座谈交流。座谈会上，张玉洁同志介绍了深圳市罗湖区人才工作的基本情况和特色做法，田雨同志主要对深圳市出台的人才政策，在人才引进培养、考核评价、激励服务等方面的经验做法进行了讲解。', '在武汉，吴建宇一行先后到中国武汉人力资源服务产业园和武汉市人才集团进行考察学习，与武汉市人才工作局三处处长杨旗、武汉市人才集团副总经理肖艳及有关方面负责人进行了座谈交流。座谈会上，杨旗同志介绍了武汉市委组织部按照市委市政府的工作部署，着力引留科技人才、专业技术人才、高层次人才，通过专业化深耕、数字化转型、资本化驱动等战略举措；肖艳同志就武汉人才集团在不断完善人才创新创业生态，促进人才资源市场化配置，增强城市人才竞争力，为武汉人才强市战略提供坚实支撑方面做了讲解。会上，双方就人才引育、留用，人才规划定位及体制机制等方面工作进行了深入沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>大名三中党委书记晋忠勇带队赴石家庄六中三十五中考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/dm/202305/t20230531_1872500.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['为进一步对标名校，更好地办好我校艺术类专业教育，吸收借鉴优秀学校的先进教育理念，加快艺术特色高中建设步伐，近日，大名三中党委书记晋忠勇、副校长吴凤杰带领部分中层干部赴石家庄六中、三十五中进行实地考察、观摩学习。', '石家庄六中是河北省批准的第一所艺术特色高中。上午在石家庄六中，晋忠勇一行实地参观了校园文化、美术打卡墙、操场、画室等，六中党委书记朱桦、副校长刘红军陪同参观。参观结束后与石家庄六中校领导和中层干部座谈，深入了解了该校办学理念、学科设置、课程安排、学生管理等方面情况。', '三十五中是1984年创办的美术高中，是国家级重点中等职业学校。下午在石家庄三十五中，晋忠勇一行实地参观了校园、画室、荣誉墙等，三十五中党总支书记师卫华等陪同参观。参观结束后与石家庄三十五中校领导和中层干部座谈，深入了解了该校发展历程、专业教师培养、学科设置、课程安排、教育教学管理等方面情况。', '年创办的美术高中，是国家级重点中等职业学校。下午在石家庄三十五中，晋忠勇一行实地参观了校园、画室、荣誉墙等，三十五中党总支书记师卫华等陪同参观。参观结束后与石家庄三十五中校领导和中层干部座谈，深入了解了该校发展历程、专业教师培养、学科设置、课程安排、教育教学管理等方面情况。', '石家庄六中、三十五中底蕴深厚的校园文化，超前的办学理念，鲜明的专业特色、精细的学校管理给大名三中深刻的启示。', '思路决定出路、想法决定办法、布局决定结局。考察学习结束后，晋忠勇要求高中年级组、相关处室力行马上就办、真抓实干作风，要以谦虚的态度学习，以务实的态度工作，在分析研究我校目前的基础上学习借鉴先进学校做法，尽快落实到工作中去，把需要结合实际进行改进的，尽快做好针对性改进，要让此次石家庄之行出真招、见实效，常学常新、常改常新，真正为把三中打造成为邯郸市乃至河北省知名艺术类特色高中开动脑筋，多想办法，多做贡献。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>永年区副区长王华一行来武考察学习社消零工作</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/wa/202303/t20230330_1857662.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['3月27日，永年区副区长王华一行6人来武考察学习社消零工作。市领导刘顺元，市政府办对口负责同志，市商务局、统计局、武安镇、上团城镇相关负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>保定市阜平县四大班子领导来邱县考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/qx/202304/t20230424_1863602.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['4月23日上午，保定市阜平县四大班子领导来我县考察学习，邯郸市委副秘书长、国安办专职副主任张利强，县长宋涛、县人大常委会主任霍力军、县政协主席谢国军陪同考察。考察团一行先后到盛水湾玫瑰产业园、韬之翼智慧建造中心、康贝尔食品有限公司、味盟食品有限公司、中科康盛生物科技有限公司考察学习。', '考察团一路看、一路听、一路学，对我县全面高质量赶超发展经验予以肯定。考察团表示近年来，邱县县委、县政府坚持把抓发展作为第一要务，牢牢把握全面高质量赶超发展这条主线，在招商引资、项目建设、乡村振兴等方面取得了显著成效，经验做法得到省市领导肯定。尤其是食品产业从“无中生有”到逐步发展壮大，被列入河北省重点支持的107个县域特色产业集群、河北省10大重点培育的食品产业集群，经验值得学习、值得研究、值得借鉴。', '宋涛表示，近年来阜平县委、县政府坚持以习近平新时代中国特色社会主义思想为指导，解放思想、真抓实干，闯出了一条符合本地实际、发展动能强劲的县域产业发展之路。希望双方互相学习、互相借鉴、取长补短，坚定不移走好高质量发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>魏县县委副书记崔凤震带队赴江苏安徽考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/wx/202304/t20230423_1863259.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['4月20日至22日，魏县县委副书记崔凤震带队赴江苏徐州、安徽六安，围绕招商引资、项目建设、校企合作等工作进行考察学习。政府副县长杨帆，县经济开发区党工委副书记、管委会常务副主任张晓景，以及教体局、人社局、产业招商促进中心主要负责同志参加相关活动。', '在江苏省徐州市，崔凤震一行在徐工技师学院党委书记、院长冯跃虹，副院长苏源陪同下先后到徐工技师学院、徐工集团徐州重型机械有限公司进行考察学习。全面考察了解该校发展历程、办学理念和校企合作情况，并围绕建立更加广阔发展空间，实现产学研用融合创新，搭建政府、学校、企业沟通桥梁，破解学生就业和企业用工的两难问题与学院领导进行深入探讨交流。', '崔凤震强调，徐工技师学院是一所全国知名的、具有鲜明企业办学特色的现代化技工学院，学院办学时间长、办学经验丰富、师资力量雄厚、教学设施先进，为国家为企业培养了大批人才。前期徐工技师学院与我县文侯中等职业学院签订了战略合作协议，双方在师资配备、教学管理、培养模式、校企合作等方面实现了良好开局。我县职业技术教育将以此为机，对标先进、加强合作，面向需求、选对路径，着力打造好而精的教育品牌。希望双方今后进一步加强沟通、深化合作、共享资源，为加快构建现代职业教育体系提供有力支撑。', '徐工技师学院是一所全国知名的、具有鲜明企业办学特色的现代化技工学院，学院办学时间长、办学经验丰富、师资力量雄厚、教学设施先进，为国家为企业培养了大批人才。前期徐工技师学院与我县文侯中等职业学院签订了战略合作协议，双方在师资配备、教学管理、培养模式、校企合作等方面实现了良好开局。我县职业技术教育将以此为机，对标先进、加强合作，面向需求、选对路径，着力打造好而精的教育品牌。希望双方今后进一步加强沟通、深化合作、共享资源，为加快构建现代职业教育体系提供有力支撑。', '随后，崔凤震一行走进徐工消防安全装备有限公司，详细了解公司基本情况，战略发展发展方向及运营情况。双方围绕战略合作、项目布局、投资建设等情况进行了探讨交流，并达成合作意向。', '在安徽省六安市，崔凤震一行深入舒城县安徽绿沃循环能源科技有限公司，通过现场考察、座谈交流等形式详细了解了企业投资计划、生产流程、产业链配套等情况。对公司产业园规划建设和上下游同建共创工作给予了高度评价，表达了对全国第二大电池工业循环利用项目与魏县循环产业合作的期望和意愿。', '在安徽省六安市，崔凤震一行深入舒城县安徽绿沃循环能源科技有限公司，通过现场考察、座谈交流等形式详细了解了企业投资计划、生产流程、产业链配套等情况。', '对公司产业园规划建设和上下游同建共创工作给予了高度评价，表达了对全国第二大电池工业循环利用项目与魏县循环产业合作的期望和意愿。', '在洽谈交流中，崔凤震指出，魏县文化底蕴深厚，区位优势明显，工农业基础较好，发展前景广阔。县委、县政府高度重视招商引资工作，将持续打造一流的营商环境，全方位服务项目建设，促进企地互利共赢。真诚邀请企业家来魏实地考察，进一步深化了解，加快合作项目落地。', '魏县文化底蕴深厚，区位优势明显，工农业基础较好，发展前景广阔。县委、县政府高度重视招商引资工作，将持续打造一流的营商环境，全方位服务项目建设，促进企地互利共赢。真诚邀请企业家来魏实地考察，进一步深化了解，加快合作项目落地。', '公司高级顾问（实控人）李金林对在魏县投资建设充满了期待和信心。他表示，魏县考察团此行，体现了满满诚意，公司将积极寻找项目切入点，尽快赴魏考察对接，加快推动项目落地，相信有魏县县委、县政府的认可支持，双方合作一定能够取得良好成果。', '魏县考察团此行，体现了满满诚意，公司将积极寻找项目切入点，尽快赴魏考察对接，加快推动项目落地，相信有魏县县委、县政府的认可支持，双方合作一定能够取得良好成果。', '双方在废旧电池循环利用、仓储运输项目，冷轧BDCK电池钢项目，以及电镀酸洗产业项目等多个领域达成了有效共识，签订了项目合作框架协议。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>张维亮率队赴合肥市学习考察招商引资经开区领导陪同</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-04-24</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/hdyw/xqdt/gkq/202304/t20230424_1863474.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['为深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，全面落实省委、省政府决策部署和省委书记倪岳峰、省长王正谱指示要求，4月22日，市委书记、经开区党工委书记张维亮率队赴安徽省合肥市，学习考察该市在强化科技创新、壮大新兴产业、优化营商环境等方面的好经验、好做法，开展招商引资活动，进一步解放思想、奋发进取，比学赶超、争先创优，以扎实成效加快推动邯郸创新发展、绿色发展、高质量发展。 合肥市委常委、常务副市长张泉，市委常委、秘书长、宣传部部长单虎陪同考察。邯郸市领导李学军、张永新、高和平，区领导张敬超参加相关活动。 合肥市以科技创新引领全面创新，是具有国际影响力的创新型城市。考察期间，张维亮一行先后到海尔卡奥斯智控互联工厂、海尔工业园、清华大学合肥公共安全研究院、安徽创新馆等地，认真了解合肥在推动科技创新、成果转化、产业发展、城市安全运营等方面的思路举措，切身感受取得的显著成效。张维亮说，近年来，合肥大气魄推动科技创新，大手笔培育新兴产业，大力度深化改革开放，高质量发展呈现良好态势。我们为合肥日新月异、强势崛起的发展变化感到振奋，合肥的好经验好做法让我们开阔眼界、深受启发，值得认真学习借鉴。当前，邯郸正处在加快建设富强文明美丽的现代化区域中心城市关键时期，全市上下要深入学习贯彻习近平新时代中国特色社会主义思想，完整、准确、全面贯彻新发展理念，立足邯郸实际、学习合肥所长，以更大的决心和力度实施创新驱动发展战略，切实把创新第一动力贯穿到项目建设、产业发展、城市建设、乡村振兴方方面面，真正把考察学习成果转化为推动高质量发展的生动实践。张维亮表示，邯郸产业完备、基础雄厚，特别是在新能源、新材料、生物健康、电子信息等产业发展上与合肥契合度高、关联性强，有着广阔的合作空间。此次合肥之行，既是一次难得的学习机会，又是开启两地交流合作的起点。真诚邀请合肥各级领导干部和企业家朋友到邯郸考察交流，推动两地开展务实合作、结出更多发展硕果。 经开区将以本次学习考察为契机，认真学习借鉴先进发展理念，进一步解放思想、拓宽视野，将市委、市政府各项安排部署落实到位，把经开区智能制造、白色家电、社会服务、产学研融合等领域持续做优做强，真正把参观学习成果转化为干事创业的动力，奋力开创经开区经济社会高质量发展新篇章。 4月21日至22日，区党工委副书记兼管委会常务副主任张敬超还带队到广东深圳、安徽六安，对接考察深圳市悦年华·颐养中心康养综合体项目和六安市明天氢能公司，以实际行动贯彻落实省市工作部署，持续掀起招商引资热潮，推动康养、新能源等产业提档升级。', '为深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，全面落实省委、省政府决策部署和省委书记倪岳峰、省长王正谱指示要求，4月22日，市委书记、经开区党工委书记张维亮率队赴安徽省合肥市，学习考察该市在强化科技创新、壮大新兴产业、优化营商环境等方面的好经验、好做法，开展招商引资活动，进一步解放思想、奋发进取，比学赶超、争先创优，以扎实成效加快推动邯郸创新发展、绿色发展、高质量发展。', '合肥市委常委、常务副市长张泉，市委常委、秘书长、宣传部部长单虎陪同考察。邯郸市领导李学军、张永新、高和平，区领导张敬超参加相关活动。', '合肥市以科技创新引领全面创新，是具有国际影响力的创新型城市。考察期间，张维亮一行先后到海尔卡奥斯智控互联工厂、海尔工业园、清华大学合肥公共安全研究院、安徽创新馆等地，认真了解合肥在推动科技创新、成果转化、产业发展、城市安全运营等方面的思路举措，切身感受取得的显著成效。张维亮说，近年来，合肥大气魄推动科技创新，大手笔培育新兴产业，大力度深化改革开放，高质量发展呈现良好态势。我们为合肥日新月异、强势崛起的发展变化感到振奋，合肥的好经验好做法让我们开阔眼界、深受启发，值得认真学习借鉴。当前，邯郸正处在加快建设富强文明美丽的现代化区域中心城市关键时期，全市上下要深入学习贯彻习近平新时代中国特色社会主义思想，完整、准确、全面贯彻新发展理念，立足邯郸实际、学习合肥所长，以更大的决心和力度实施创新驱动发展战略，切实把创新第一动力贯穿到项目建设、产业发展、城市建设、乡村振兴方方面面，真正把考察学习成果转化为推动高质量发展的生动实践。张维亮表示，邯郸产业完备、基础雄厚，特别是在新能源、新材料、生物健康、电子信息等产业发展上与合肥契合度高、关联性强，有着广阔的合作空间。此次合肥之行，既是一次难得的学习机会，又是开启两地交流合作的起点。真诚邀请合肥各级领导干部和企业家朋友到邯郸考察交流，推动两地开展务实合作、结出更多发展硕果。', '经开区将以本次学习考察为契机，认真学习借鉴先进发展理念，进一步解放思想、拓宽视野，将市委、市政府各项安排部署落实到位，把经开区智能制造、白色家电、社会服务、产学研融合等领域持续做优做强，真正把参观学习成果转化为干事创业的动力，奋力开创经开区经济社会高质量发展新篇章。', '4月21日至22日，区党工委副书记兼管委会常务副主任张敬超还带队到广东深圳、安徽六安，对接考察深圳市悦年华·颐养中心康养综合体项目和六安市明天氢能公司，以实际行动贯彻落实省市工作部署，持续掀起招商引资热潮，推动康养、新能源等产业提档升级。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>邯郸市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市建设局赴保定市实地考察学习被动式超低能耗建筑和绿色建筑工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.hd.gov.cn/m/sjbmdt/202310/t20231031_1975851.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['近日，市建设局副局长刘会勋带队赴保定市考察学习被动式超低能耗建筑、星级绿色建筑建设等工作。涉县、大名县、广平县住建部门分管负责同志参加。 考察学习组实地观摩了保定市徐水区颐和雅园项目被动式超低能耗建筑设计及运营使用情况，学习以高性能外墙保温系统、高性能保温门窗、高效率热回收新风系统等技术，解决不具备集中采暖条件的县（市、区）和城乡结合部冬季采暖问题的先进经验。随后观摩了绿建二星项目中国古动物馆（保定市自然博物馆），学习本土化材料、装配式钢结构技术、高能效空调技术、高性能保温及外门窗等先进做法。同时，就被动式超低能耗建筑、星级绿色建筑支持政策、工程建设管理等工作推进中存在的共性问题，与保定市住建部门进行了座谈交流。 通过此次考察学习，在被动式超低能耗建筑技术、星级绿色建筑政策与监管等方面开阔了眼界，拓宽了思路。市建设局将以本次考察学习为契机，借鉴先进，破解难题，提升业务水平，全面推进我市被动式超低能耗建筑、星级绿色建筑工作提质增速。', '近日，市建设局副局长刘会勋带队赴保定市考察学习被动式超低能耗建筑、星级绿色建筑建设等工作。涉县、大名县、广平县住建部门分管负责同志参加。', '考察学习组实地观摩了保定市徐水区颐和雅园项目被动式超低能耗建筑设计及运营使用情况，学习以高性能外墙保温系统、高性能保温门窗、高效率热回收新风系统等技术，解决不具备集中采暖条件的县（市、区）和城乡结合部冬季采暖问题的先进经验。随后观摩了绿建二星项目中国古动物馆（保定市自然博物馆），学习本土化材料、装配式钢结构技术、高能效空调技术、高性能保温及外门窗等先进做法。同时，就被动式超低能耗建筑、星级绿色建筑支持政策、工程建设管理等工作推进中存在的共性问题，与保定市住建部门进行了座谈交流。', '通过此次考察学习，在被动式超低能耗建筑技术、星级绿色建筑政策与监管等方面开阔了眼界，拓宽了思路。市建设局将以本次考察学习为契机，借鉴先进，破解难题，提升业务水平，全面推进我市被动式超低能耗建筑、星级绿色建筑工作提质增速。']</t>
         </is>
